--- a/config_6.8/item_config.xlsx
+++ b/config_6.8/item_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_6.8\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="1022">
   <si>
     <t>id|行号</t>
   </si>
@@ -30,6 +35,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -39,6 +45,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tem_key</t>
@@ -48,6 +55,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|道具key，全局唯一</t>
@@ -65,6 +73,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>image|</t>
@@ -74,6 +83,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>道具</t>
@@ -83,6 +93,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>图片</t>
@@ -92,6 +103,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>名</t>
@@ -109,6 +121,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>name|</t>
@@ -118,6 +131,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>道具名称</t>
@@ -129,6 +143,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>desc|</t>
@@ -138,6 +153,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>描述</t>
@@ -416,6 +432,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -426,6 +443,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -447,6 +465,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -457,6 +476,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -538,6 +558,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -548,6 +569,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -572,6 +594,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -582,6 +605,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -606,6 +630,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -616,6 +641,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -733,6 +759,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -743,6 +770,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -753,6 +781,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -774,6 +803,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -784,6 +814,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -794,6 +825,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -863,6 +895,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -873,6 +906,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -930,6 +964,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -940,6 +975,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -950,6 +986,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1013,6 +1050,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1023,6 +1061,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1033,6 +1072,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1054,6 +1094,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1064,6 +1105,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3077,6 +3119,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3087,6 +3130,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3429,18 +3473,44 @@
   <si>
     <t>海王炮台加成2%</t>
   </si>
+  <si>
+    <t>prop_super_treasure_key_1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_super_treasure_key_2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>银钥匙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钥匙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在夺宝中开启普通宝箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在夺宝中开启豪华宝箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjdb_bg_jys</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjdb_bg_ys</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3452,12 +3522,14 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3465,29 +3537,32 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3495,159 +3570,39 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3662,31 +3617,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3702,182 +3657,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3911,257 +3692,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4195,7 +3734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4222,7 +3761,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4285,64 +3824,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4600,18 +4098,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q324"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M326" sqref="M326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4634,7 +4131,7 @@
     <col min="18" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="90.75" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="90.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4687,7 +4184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4714,7 +4211,7 @@
       </c>
       <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -4746,7 +4243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -4772,7 +4269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4798,7 +4295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4824,7 +4321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -4850,7 +4347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4876,7 +4373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:17">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -4911,7 +4408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:17">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -4938,7 +4435,7 @@
       </c>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:17">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -4965,7 +4462,7 @@
       </c>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:17">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4992,7 +4489,7 @@
       </c>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:17">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -5019,7 +4516,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:17">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -5046,7 +4543,7 @@
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:17">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -5073,7 +4570,7 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:17">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -5100,7 +4597,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:13">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -5127,7 +4624,7 @@
       </c>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:13">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -5154,7 +4651,7 @@
       </c>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:13">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -5180,7 +4677,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:13">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -5206,7 +4703,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:13">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -5232,7 +4729,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:13">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -5258,7 +4755,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:13">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -5284,7 +4781,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:13">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -5310,7 +4807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:13">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -5336,7 +4833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:13">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -5369,7 +4866,7 @@
       </c>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:13">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -5396,7 +4893,7 @@
       </c>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -5432,7 +4929,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:12">
+    <row r="29" spans="1:13" s="1" customFormat="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5504,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:12">
+    <row r="31" spans="1:13" s="2" customFormat="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5539,7 +5036,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:12">
+    <row r="32" spans="1:13" s="2" customFormat="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5574,7 +5071,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:12">
+    <row r="33" spans="1:12" s="2" customFormat="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5609,7 +5106,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:12">
+    <row r="34" spans="1:12" s="2" customFormat="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5644,7 +5141,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:12">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -5778,7 +5275,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -5808,7 +5305,7 @@
       </c>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -5838,7 +5335,7 @@
       </c>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -6050,7 +5547,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -6083,7 +5580,7 @@
       </c>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" ht="16.5" spans="1:12">
+    <row r="48" spans="1:12" ht="16.5">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -6117,7 +5614,7 @@
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
     </row>
-    <row r="49" ht="16.5" spans="1:12">
+    <row r="49" spans="1:14" ht="16.5">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -6151,7 +5648,7 @@
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:14">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -6178,7 +5675,7 @@
       </c>
       <c r="K50" s="14"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:14">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -6213,7 +5710,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:14">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -6248,7 +5745,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:10">
+    <row r="53" spans="1:14" ht="16.5">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -6280,7 +5777,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:14">
+    <row r="54" spans="1:14" ht="16.5">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -6318,7 +5815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:14">
+    <row r="55" spans="1:14" ht="16.5">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -6356,7 +5853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:14">
+    <row r="56" spans="1:14" ht="16.5">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -6394,7 +5891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:12">
+    <row r="57" spans="1:14" ht="16.5">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -6429,7 +5926,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:14">
+    <row r="58" spans="1:14" ht="16.5">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -6464,7 +5961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:14">
+    <row r="59" spans="1:14" ht="16.5">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -6499,7 +5996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:14">
+    <row r="60" spans="1:14" ht="16.5">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -6534,7 +6031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:14">
+    <row r="61" spans="1:14" ht="16.5">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -6569,7 +6066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:14">
+    <row r="62" spans="1:14" ht="16.5">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -6604,7 +6101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:12">
+    <row r="63" spans="1:14" ht="16.5">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -6639,7 +6136,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:10">
+    <row r="64" spans="1:14" ht="16.5">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -6671,7 +6168,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:12">
+    <row r="65" spans="1:14" ht="16.5">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -6706,7 +6203,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:14">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -6738,7 +6235,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:14">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -6770,7 +6267,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:14">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -6802,7 +6299,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:14">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -6834,7 +6331,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:12">
+    <row r="70" spans="1:14" ht="16.5">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -6869,7 +6366,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:10">
+    <row r="71" spans="1:14" ht="16.5">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -6901,7 +6398,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:10">
+    <row r="72" spans="1:14" ht="16.5">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -6933,7 +6430,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:14">
+    <row r="73" spans="1:14" ht="16.5">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -7009,7 +6506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:14">
+    <row r="75" spans="1:14" ht="16.5">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -7047,7 +6544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="1:14">
+    <row r="76" spans="1:14" ht="16.5">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -7083,7 +6580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" ht="27" spans="1:12">
+    <row r="77" spans="1:14" ht="27">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -7118,7 +6615,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:14">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -7151,7 +6648,7 @@
       </c>
       <c r="L78" s="14"/>
     </row>
-    <row r="79" ht="16.5" spans="1:10">
+    <row r="79" spans="1:14" ht="16.5">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -7183,7 +6680,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:12">
+    <row r="80" spans="1:14" ht="16.5">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -7216,7 +6713,7 @@
       </c>
       <c r="L80" s="14"/>
     </row>
-    <row r="81" ht="16.5" spans="1:15">
+    <row r="81" spans="1:17" ht="16.5">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -7254,7 +6751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:15">
+    <row r="82" spans="1:17" ht="16.5">
       <c r="A82" s="10">
         <v>81</v>
       </c>
@@ -7292,7 +6789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:10">
+    <row r="83" spans="1:17" ht="16.5">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -7324,7 +6821,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:10">
+    <row r="84" spans="1:17" ht="16.5">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -7356,7 +6853,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:10">
+    <row r="85" spans="1:17" ht="16.5">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -7388,7 +6885,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:10">
+    <row r="86" spans="1:17" ht="16.5">
       <c r="A86" s="10">
         <v>85</v>
       </c>
@@ -7420,7 +6917,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:10">
+    <row r="87" spans="1:17" ht="16.5">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -7452,7 +6949,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:10">
+    <row r="88" spans="1:17" ht="16.5">
       <c r="A88" s="10">
         <v>87</v>
       </c>
@@ -7484,7 +6981,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:10">
+    <row r="89" spans="1:17" ht="16.5">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -7516,7 +7013,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:10">
+    <row r="90" spans="1:17" ht="16.5">
       <c r="A90" s="10">
         <v>89</v>
       </c>
@@ -7548,7 +7045,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:10">
+    <row r="91" spans="1:17" ht="16.5">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -7580,7 +7077,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:10">
+    <row r="92" spans="1:17" ht="16.5">
       <c r="A92" s="10">
         <v>91</v>
       </c>
@@ -7612,7 +7109,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:10">
+    <row r="93" spans="1:17" ht="16.5">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -7644,7 +7141,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:17">
+    <row r="94" spans="1:17" ht="16.5">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -7688,7 +7185,7 @@
         <v>1581177599</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:10">
+    <row r="95" spans="1:17" ht="16.5">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -7720,7 +7217,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:10">
+    <row r="96" spans="1:17" ht="16.5">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -7752,7 +7249,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:14">
+    <row r="97" spans="1:14" ht="16.5">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -7787,7 +7284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:14">
+    <row r="98" spans="1:14" ht="16.5">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -7822,7 +7319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:14">
+    <row r="99" spans="1:14" ht="16.5">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -7857,7 +7354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:14">
+    <row r="100" spans="1:14" ht="16.5">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -7892,7 +7389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:14">
+    <row r="101" spans="1:14" ht="16.5">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -7927,7 +7424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:14">
+    <row r="102" spans="1:14" ht="16.5">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -7962,7 +7459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:14">
+    <row r="103" spans="1:14" ht="16.5">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -7997,7 +7494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:14">
+    <row r="104" spans="1:14" ht="16.5">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -8032,7 +7529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:14">
+    <row r="105" spans="1:14" ht="16.5">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -8067,7 +7564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:14">
+    <row r="106" spans="1:14" ht="16.5">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -8102,7 +7599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:14">
+    <row r="107" spans="1:14" ht="16.5">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -8139,7 +7636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:14">
+    <row r="108" spans="1:14" ht="16.5">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -8176,7 +7673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:10">
+    <row r="109" spans="1:14" ht="16.5">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -8208,7 +7705,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:12">
+    <row r="110" spans="1:14" ht="16.5">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -8241,7 +7738,7 @@
       </c>
       <c r="L110" s="14"/>
     </row>
-    <row r="111" ht="16.5" spans="1:14">
+    <row r="111" spans="1:14" ht="16.5">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -8279,7 +7776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:14">
+    <row r="112" spans="1:14" ht="16.5">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -8317,7 +7814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:14">
+    <row r="113" spans="1:14" ht="16.5">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -8355,7 +7852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:14">
+    <row r="114" spans="1:14" ht="16.5">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -8393,7 +7890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:14">
+    <row r="115" spans="1:14" ht="16.5">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -8431,7 +7928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:14">
+    <row r="116" spans="1:14" ht="16.5">
       <c r="A116" s="10">
         <v>115</v>
       </c>
@@ -8469,7 +7966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:12">
+    <row r="117" spans="1:14" ht="16.5">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -8503,7 +8000,7 @@
       <c r="K117" s="14"/>
       <c r="L117" s="14"/>
     </row>
-    <row r="118" ht="16.5" spans="1:10">
+    <row r="118" spans="1:14" ht="16.5">
       <c r="A118" s="10">
         <v>117</v>
       </c>
@@ -8535,7 +8032,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="119" ht="16.5" spans="1:10">
+    <row r="119" spans="1:14" ht="16.5">
       <c r="A119" s="10">
         <v>118</v>
       </c>
@@ -8567,7 +8064,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:10">
+    <row r="120" spans="1:14" ht="16.5">
       <c r="A120" s="10">
         <v>119</v>
       </c>
@@ -8599,7 +8096,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:10">
+    <row r="121" spans="1:14" ht="16.5">
       <c r="A121" s="10">
         <v>120</v>
       </c>
@@ -8631,7 +8128,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:10">
+    <row r="122" spans="1:14" ht="16.5">
       <c r="A122" s="10">
         <v>121</v>
       </c>
@@ -8663,7 +8160,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:14">
+    <row r="123" spans="1:14" ht="16.5">
       <c r="A123" s="10">
         <v>122</v>
       </c>
@@ -8698,7 +8195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:14">
+    <row r="124" spans="1:14" ht="16.5">
       <c r="A124" s="10">
         <v>123</v>
       </c>
@@ -8733,7 +8230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:14">
+    <row r="125" spans="1:14" ht="16.5">
       <c r="A125" s="10">
         <v>124</v>
       </c>
@@ -8768,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:14">
+    <row r="126" spans="1:14" ht="16.5">
       <c r="A126" s="10">
         <v>125</v>
       </c>
@@ -8803,7 +8300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:14">
+    <row r="127" spans="1:14" ht="16.5">
       <c r="A127" s="10">
         <v>126</v>
       </c>
@@ -8838,7 +8335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:14">
+    <row r="128" spans="1:14" ht="16.5">
       <c r="A128" s="10">
         <v>127</v>
       </c>
@@ -8873,7 +8370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:14">
+    <row r="129" spans="1:14" ht="16.5">
       <c r="A129" s="10">
         <v>128</v>
       </c>
@@ -8908,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:14">
+    <row r="130" spans="1:14" ht="16.5">
       <c r="A130" s="10">
         <v>129</v>
       </c>
@@ -8943,7 +8440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:10">
+    <row r="131" spans="1:14" ht="16.5">
       <c r="A131" s="10">
         <v>130</v>
       </c>
@@ -8975,7 +8472,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:14">
       <c r="A132" s="10">
         <v>131</v>
       </c>
@@ -9007,7 +8504,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:14">
       <c r="A133" s="10">
         <v>132</v>
       </c>
@@ -9039,7 +8536,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:14">
       <c r="A134" s="10">
         <v>133</v>
       </c>
@@ -9071,7 +8568,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:14">
       <c r="A135" s="10">
         <v>134</v>
       </c>
@@ -9103,7 +8600,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:14">
       <c r="A136" s="10">
         <v>135</v>
       </c>
@@ -9135,7 +8632,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:14">
       <c r="A137" s="10">
         <v>136</v>
       </c>
@@ -9167,7 +8664,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:14">
       <c r="A138" s="10">
         <v>137</v>
       </c>
@@ -9199,7 +8696,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:14">
       <c r="A139" s="10">
         <v>138</v>
       </c>
@@ -9231,7 +8728,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:14">
       <c r="A140" s="10">
         <v>139</v>
       </c>
@@ -9263,7 +8760,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:14">
       <c r="A141" s="10">
         <v>140</v>
       </c>
@@ -9295,7 +8792,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:14">
       <c r="A142" s="10">
         <v>141</v>
       </c>
@@ -9327,7 +8824,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:14">
       <c r="A143" s="10">
         <v>142</v>
       </c>
@@ -9359,7 +8856,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:14">
       <c r="A144" s="10">
         <v>143</v>
       </c>
@@ -9391,7 +8888,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:14">
       <c r="A145" s="10">
         <v>144</v>
       </c>
@@ -9423,7 +8920,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="146" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="146" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -9455,7 +8952,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="147" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="147" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -9487,7 +8984,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="148" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="148" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -9519,7 +9016,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="149" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="149" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -9551,7 +9048,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="150" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="150" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -9583,7 +9080,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="151" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="151" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -9615,7 +9112,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="152" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="152" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -9647,7 +9144,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="153" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="153" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -9679,7 +9176,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="154" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="154" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -9711,7 +9208,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="155" s="3" customFormat="1" spans="1:10">
+    <row r="155" spans="1:14" s="3" customFormat="1">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -9743,7 +9240,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="156" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="156" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -9775,7 +9272,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="157" s="3" customFormat="1" ht="16.5" spans="1:14">
+    <row r="157" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -9813,7 +9310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" s="3" customFormat="1" ht="16.5" spans="1:14">
+    <row r="158" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -9851,7 +9348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" s="3" customFormat="1" ht="16.5" spans="1:14">
+    <row r="159" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -9889,7 +9386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" s="3" customFormat="1" ht="16.5" spans="1:14">
+    <row r="160" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -9927,7 +9424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" s="3" customFormat="1" ht="16.5" spans="1:14">
+    <row r="161" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -9965,7 +9462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" s="2" customFormat="1" ht="16.5" spans="1:14">
+    <row r="162" spans="1:14" s="2" customFormat="1" ht="16.5">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -10000,7 +9497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" s="2" customFormat="1" ht="16.5" spans="1:14">
+    <row r="163" spans="1:14" s="2" customFormat="1" ht="16.5">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -10035,7 +9532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" s="2" customFormat="1" ht="16.5" spans="1:14">
+    <row r="164" spans="1:14" s="2" customFormat="1" ht="16.5">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -10070,7 +9567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" s="2" customFormat="1" ht="16.5" spans="1:14">
+    <row r="165" spans="1:14" s="2" customFormat="1" ht="16.5">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -10105,7 +9602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" s="2" customFormat="1" ht="16.5" spans="1:14">
+    <row r="166" spans="1:14" s="2" customFormat="1" ht="16.5">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -10140,7 +9637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" s="3" customFormat="1" ht="16.5" spans="1:14">
+    <row r="167" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -10175,7 +9672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" s="3" customFormat="1" ht="16.5" spans="1:14">
+    <row r="168" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -10210,7 +9707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" s="3" customFormat="1" ht="16.5" spans="1:14">
+    <row r="169" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -10245,7 +9742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" s="3" customFormat="1" ht="16.5" spans="1:14">
+    <row r="170" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -10280,7 +9777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" s="3" customFormat="1" ht="16.5" spans="1:14">
+    <row r="171" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -10315,7 +9812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="172" spans="1:14" s="3" customFormat="1" ht="16.5">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -10347,7 +9844,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="173" s="4" customFormat="1" spans="1:10">
+    <row r="173" spans="1:14" s="4" customFormat="1">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -10379,7 +9876,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="174" s="4" customFormat="1" spans="1:10">
+    <row r="174" spans="1:14" s="4" customFormat="1">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -10411,7 +9908,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="175" s="4" customFormat="1" spans="1:10">
+    <row r="175" spans="1:14" s="4" customFormat="1">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -10443,7 +9940,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="176" s="5" customFormat="1" spans="1:10">
+    <row r="176" spans="1:14" s="5" customFormat="1">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -10475,7 +9972,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="177" s="6" customFormat="1" spans="1:10">
+    <row r="177" spans="1:15" s="6" customFormat="1">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -10507,7 +10004,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:14">
+    <row r="178" spans="1:15" ht="16.5">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -10544,7 +10041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:14">
+    <row r="179" spans="1:15" ht="16.5">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -10581,7 +10078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" ht="16.5" spans="1:14">
+    <row r="180" spans="1:15" ht="16.5">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -10618,7 +10115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" s="6" customFormat="1" spans="1:10">
+    <row r="181" spans="1:15" s="6" customFormat="1">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -10650,7 +10147,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="182" s="5" customFormat="1" spans="1:15">
+    <row r="182" spans="1:15" s="5" customFormat="1">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -10688,7 +10185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="183" s="5" customFormat="1" spans="1:15">
+    <row r="183" spans="1:15" s="5" customFormat="1">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -10726,7 +10223,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" s="5" customFormat="1" spans="1:15">
+    <row r="184" spans="1:15" s="5" customFormat="1">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -10764,7 +10261,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="185" s="7" customFormat="1" spans="1:14">
+    <row r="185" spans="1:15" s="7" customFormat="1">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -10799,7 +10296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" s="7" customFormat="1" spans="1:14">
+    <row r="186" spans="1:15" s="7" customFormat="1">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -10834,7 +10331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" s="7" customFormat="1" spans="1:14">
+    <row r="187" spans="1:15" s="7" customFormat="1">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -10869,7 +10366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" s="7" customFormat="1" spans="1:14">
+    <row r="188" spans="1:15" s="7" customFormat="1">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -10904,7 +10401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" s="7" customFormat="1" spans="1:14">
+    <row r="189" spans="1:15" s="7" customFormat="1">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -10939,7 +10436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" s="7" customFormat="1" spans="1:14">
+    <row r="190" spans="1:15" s="7" customFormat="1">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -10974,7 +10471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" s="7" customFormat="1" spans="1:14">
+    <row r="191" spans="1:15" s="7" customFormat="1">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -11009,7 +10506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:15">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -14264,7 +13761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" s="3" customFormat="1" spans="1:10">
+    <row r="285" spans="1:14" s="3" customFormat="1">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -14296,7 +13793,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="286" s="3" customFormat="1" spans="1:10">
+    <row r="286" spans="1:14" s="3" customFormat="1">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -14328,7 +13825,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="287" s="3" customFormat="1" spans="1:10">
+    <row r="287" spans="1:14" s="3" customFormat="1">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -14360,7 +13857,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="288" s="3" customFormat="1" spans="1:10">
+    <row r="288" spans="1:14" s="3" customFormat="1">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -14392,7 +13889,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="289" s="3" customFormat="1" spans="1:10">
+    <row r="289" spans="1:12" s="3" customFormat="1">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -14424,7 +13921,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="290" s="3" customFormat="1" spans="1:10">
+    <row r="290" spans="1:12" s="3" customFormat="1">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -14456,7 +13953,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="291" s="8" customFormat="1" spans="1:10">
+    <row r="291" spans="1:12" s="8" customFormat="1">
       <c r="A291" s="8">
         <v>290</v>
       </c>
@@ -14488,7 +13985,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="292" s="3" customFormat="1" ht="16.5" spans="1:12">
+    <row r="292" spans="1:12" s="3" customFormat="1" ht="16.5">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -14523,7 +14020,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="293" s="3" customFormat="1" ht="16.5" spans="1:12">
+    <row r="293" spans="1:12" s="3" customFormat="1" ht="16.5">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -14558,7 +14055,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="294" s="3" customFormat="1" ht="16.5" spans="1:12">
+    <row r="294" spans="1:12" s="3" customFormat="1" ht="16.5">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -14593,7 +14090,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="295" s="3" customFormat="1" spans="1:10">
+    <row r="295" spans="1:12" s="3" customFormat="1">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -14625,7 +14122,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="296" s="3" customFormat="1" spans="1:10">
+    <row r="296" spans="1:12" s="3" customFormat="1">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -14657,7 +14154,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="297" s="3" customFormat="1" spans="1:10">
+    <row r="297" spans="1:12" s="3" customFormat="1">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -14689,7 +14186,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="298" s="3" customFormat="1" spans="1:10">
+    <row r="298" spans="1:12" s="3" customFormat="1">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -14721,7 +14218,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="299" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="299" spans="1:12" s="3" customFormat="1" ht="16.5">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -14753,7 +14250,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="300" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="300" spans="1:12" s="3" customFormat="1" ht="16.5">
       <c r="A300" s="3">
         <v>299</v>
       </c>
@@ -14785,7 +14282,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="301" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="301" spans="1:12" s="3" customFormat="1" ht="16.5">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -14817,7 +14314,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="302" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="302" spans="1:12" s="3" customFormat="1" ht="16.5">
       <c r="A302" s="3">
         <v>301</v>
       </c>
@@ -14849,7 +14346,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="303" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="303" spans="1:12" s="3" customFormat="1" ht="16.5">
       <c r="A303" s="3">
         <v>302</v>
       </c>
@@ -14881,7 +14378,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="304" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="304" spans="1:12" s="3" customFormat="1" ht="16.5">
       <c r="A304" s="3">
         <v>303</v>
       </c>
@@ -14913,7 +14410,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="305" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="305" spans="1:12" s="3" customFormat="1" ht="16.5">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -14945,7 +14442,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="306" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="306" spans="1:12" s="3" customFormat="1" ht="16.5">
       <c r="A306" s="3">
         <v>305</v>
       </c>
@@ -14977,7 +14474,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="307" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="307" spans="1:12" s="3" customFormat="1" ht="16.5">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -15009,7 +14506,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="308" s="9" customFormat="1" ht="16.5" spans="1:12">
+    <row r="308" spans="1:12" s="9" customFormat="1" ht="16.5">
       <c r="A308" s="3">
         <v>307</v>
       </c>
@@ -15047,7 +14544,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="309" s="9" customFormat="1" ht="16.5" spans="1:12">
+    <row r="309" spans="1:12" s="9" customFormat="1" ht="16.5">
       <c r="A309" s="3">
         <v>308</v>
       </c>
@@ -15085,7 +14582,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="310" s="9" customFormat="1" ht="16.5" spans="1:12">
+    <row r="310" spans="1:12" s="9" customFormat="1" ht="16.5">
       <c r="A310" s="3">
         <v>309</v>
       </c>
@@ -15123,7 +14620,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="311" s="9" customFormat="1" ht="16.5" spans="1:12">
+    <row r="311" spans="1:12" s="9" customFormat="1" ht="16.5">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -15161,7 +14658,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="312" s="9" customFormat="1" ht="16.5" spans="1:12">
+    <row r="312" spans="1:12" s="9" customFormat="1" ht="16.5">
       <c r="A312" s="3">
         <v>311</v>
       </c>
@@ -15199,7 +14696,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="313" s="9" customFormat="1" ht="16.5" spans="1:12">
+    <row r="313" spans="1:12" s="9" customFormat="1" ht="16.5">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -15237,7 +14734,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="314" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="314" spans="1:12" s="3" customFormat="1" ht="16.5">
       <c r="A314" s="3">
         <v>313</v>
       </c>
@@ -15269,7 +14766,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="315" ht="16.5" spans="1:12">
+    <row r="315" spans="1:12" ht="16.5">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -15304,7 +14801,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="316" ht="16.5" spans="1:12">
+    <row r="316" spans="1:12" ht="16.5">
       <c r="A316" s="3">
         <v>315</v>
       </c>
@@ -15339,7 +14836,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="317" ht="16.5" spans="1:12">
+    <row r="317" spans="1:12" ht="16.5">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -15374,7 +14871,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="318" ht="16.5" spans="1:12">
+    <row r="318" spans="1:12" ht="16.5">
       <c r="A318" s="3">
         <v>317</v>
       </c>
@@ -15409,7 +14906,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:12">
       <c r="A319" s="3">
         <v>318</v>
       </c>
@@ -15508,7 +15005,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="322" ht="15.75" spans="1:10">
+    <row r="322" spans="1:10" ht="15.75">
       <c r="A322" s="10">
         <v>321</v>
       </c>
@@ -15604,12 +15101,74 @@
         <v>1013</v>
       </c>
     </row>
+    <row r="325" spans="1:10">
+      <c r="A325" s="10">
+        <v>324</v>
+      </c>
+      <c r="B325" s="10">
+        <v>324</v>
+      </c>
+      <c r="C325" s="41" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D325" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E325" s="10">
+        <v>1</v>
+      </c>
+      <c r="F325" s="41" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G325" s="10">
+        <v>1</v>
+      </c>
+      <c r="H325" s="10">
+        <v>1</v>
+      </c>
+      <c r="I325" s="41" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J325" s="41" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10">
+      <c r="A326" s="10">
+        <v>325</v>
+      </c>
+      <c r="B326" s="10">
+        <v>325</v>
+      </c>
+      <c r="C326" s="41" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D326" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E326" s="10">
+        <v>1</v>
+      </c>
+      <c r="F326" s="41" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G326" s="10">
+        <v>1</v>
+      </c>
+      <c r="H326" s="10">
+        <v>1</v>
+      </c>
+      <c r="I326" s="41" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J326" s="41" t="s">
+        <v>1019</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q324">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:Q324"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_6.8/item_config.xlsx
+++ b/config_6.8/item_config.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_6.8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|道具配置'!$A$1:$Q$324</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|道具配置'!$A$1:$Q$326</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -35,7 +30,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -45,7 +39,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tem_key</t>
@@ -55,7 +48,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|道具key，全局唯一</t>
@@ -73,7 +65,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>image|</t>
@@ -83,7 +74,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>道具</t>
@@ -93,7 +83,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>图片</t>
@@ -103,7 +92,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>名</t>
@@ -121,7 +109,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>name|</t>
@@ -131,7 +118,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>道具名称</t>
@@ -143,7 +129,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>desc|</t>
@@ -153,7 +138,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>描述</t>
@@ -432,7 +416,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -443,7 +426,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -465,7 +447,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -476,7 +457,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -558,7 +538,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -569,7 +548,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -594,7 +572,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -605,7 +582,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -630,7 +606,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -641,7 +616,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -759,7 +733,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -770,7 +743,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -781,7 +753,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -803,7 +774,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -814,7 +784,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -825,7 +794,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -895,7 +863,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -906,7 +873,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -964,7 +930,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -975,7 +940,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -986,7 +950,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1050,7 +1013,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1061,7 +1023,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1072,7 +1033,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1094,7 +1054,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1105,7 +1064,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3119,7 +3077,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3130,7 +3087,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3475,42 +3431,40 @@
   </si>
   <si>
     <t>prop_super_treasure_key_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjdb_bg_ys</t>
+  </si>
+  <si>
+    <t>金钥匙</t>
+  </si>
+  <si>
+    <t>在夺宝中开启普通宝箱</t>
   </si>
   <si>
     <t>prop_super_treasure_key_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjdb_bg_jys</t>
   </si>
   <si>
     <t>银钥匙</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钥匙</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在夺宝中开启普通宝箱</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>在夺宝中开启豪华宝箱</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjdb_bg_jys</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjdb_bg_ys</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3522,14 +3476,12 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3537,32 +3489,29 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3570,39 +3519,166 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3617,31 +3693,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79992065187536243"/>
+        <fgColor theme="8" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3657,8 +3733,194 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3692,13 +3954,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3734,7 +4238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3761,7 +4265,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3824,23 +4328,67 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4098,17 +4646,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M326" sqref="M326"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A326" sqref="A326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4131,7 +4680,7 @@
     <col min="18" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="90.75" customHeight="1">
+    <row r="1" ht="90.75" customHeight="1" spans="1:17">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4184,7 +4733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:11">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4211,7 +4760,7 @@
       </c>
       <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:10">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -4243,7 +4792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:10">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -4269,7 +4818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:10">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4295,7 +4844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:10">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4321,7 +4870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:10">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -4347,7 +4896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:10">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4373,7 +4922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:12">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -4408,7 +4957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:11">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -4435,7 +4984,7 @@
       </c>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:11">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -4462,7 +5011,7 @@
       </c>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4489,7 +5038,7 @@
       </c>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:11">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -4516,7 +5065,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:11">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -4543,7 +5092,7 @@
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:11">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -4570,7 +5119,7 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:11">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -4597,7 +5146,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:11">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -4624,7 +5173,7 @@
       </c>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:11">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -4651,7 +5200,7 @@
       </c>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:10">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -4677,7 +5226,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:10">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -4703,7 +5252,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:10">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -4729,7 +5278,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:10">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -4755,7 +5304,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:10">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -4781,7 +5330,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:10">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -4807,7 +5356,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:10">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -4833,7 +5382,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:11">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -4866,7 +5415,7 @@
       </c>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:11">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -4893,7 +5442,7 @@
       </c>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:12">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -4929,7 +5478,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1">
+    <row r="29" s="1" customFormat="1" spans="1:12">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5001,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="2" customFormat="1">
+    <row r="31" s="2" customFormat="1" spans="1:12">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5036,7 +5585,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="2" customFormat="1">
+    <row r="32" s="2" customFormat="1" spans="1:12">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5071,7 +5620,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="2" customFormat="1">
+    <row r="33" s="2" customFormat="1" spans="1:12">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5106,7 +5655,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="2" customFormat="1">
+    <row r="34" s="2" customFormat="1" spans="1:12">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5141,7 +5690,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:10">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -5275,7 +5824,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:11">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -5305,7 +5854,7 @@
       </c>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:11">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -5335,7 +5884,7 @@
       </c>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:11">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -5547,7 +6096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:11">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -5580,7 +6129,7 @@
       </c>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:12" ht="16.5">
+    <row r="48" ht="16.5" spans="1:12">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -5614,7 +6163,7 @@
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
     </row>
-    <row r="49" spans="1:14" ht="16.5">
+    <row r="49" ht="16.5" spans="1:12">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -5648,7 +6197,7 @@
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:11">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -5675,7 +6224,7 @@
       </c>
       <c r="K50" s="14"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:12">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -5710,7 +6259,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:12">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -5745,7 +6294,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16.5">
+    <row r="53" ht="16.5" spans="1:10">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -5777,7 +6326,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16.5">
+    <row r="54" ht="16.5" spans="1:14">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -5815,7 +6364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="16.5">
+    <row r="55" ht="16.5" spans="1:14">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -5853,7 +6402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16.5">
+    <row r="56" ht="16.5" spans="1:14">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -5891,7 +6440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16.5">
+    <row r="57" ht="16.5" spans="1:12">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -5926,7 +6475,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16.5">
+    <row r="58" ht="16.5" spans="1:14">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -5961,7 +6510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16.5">
+    <row r="59" ht="16.5" spans="1:14">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -5996,7 +6545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="16.5">
+    <row r="60" ht="16.5" spans="1:14">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -6031,7 +6580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="16.5">
+    <row r="61" ht="16.5" spans="1:14">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -6066,7 +6615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16.5">
+    <row r="62" ht="16.5" spans="1:14">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -6101,7 +6650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="16.5">
+    <row r="63" ht="16.5" spans="1:12">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -6136,7 +6685,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16.5">
+    <row r="64" ht="16.5" spans="1:10">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -6168,7 +6717,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16.5">
+    <row r="65" ht="16.5" spans="1:12">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -6203,7 +6752,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:10">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -6235,7 +6784,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:10">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -6267,7 +6816,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:10">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -6299,7 +6848,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:10">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -6331,7 +6880,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16.5">
+    <row r="70" ht="16.5" spans="1:12">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -6366,7 +6915,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16.5">
+    <row r="71" ht="16.5" spans="1:10">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -6398,7 +6947,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16.5">
+    <row r="72" ht="16.5" spans="1:10">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -6430,7 +6979,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16.5">
+    <row r="73" ht="16.5" spans="1:14">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -6506,7 +7055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16.5">
+    <row r="75" ht="16.5" spans="1:14">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -6544,7 +7093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16.5">
+    <row r="76" ht="16.5" spans="1:14">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -6580,7 +7129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="27">
+    <row r="77" ht="27" spans="1:12">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -6615,7 +7164,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:12">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -6648,7 +7197,7 @@
       </c>
       <c r="L78" s="14"/>
     </row>
-    <row r="79" spans="1:14" ht="16.5">
+    <row r="79" ht="16.5" spans="1:10">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -6680,7 +7229,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16.5">
+    <row r="80" ht="16.5" spans="1:12">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -6713,7 +7262,7 @@
       </c>
       <c r="L80" s="14"/>
     </row>
-    <row r="81" spans="1:17" ht="16.5">
+    <row r="81" ht="16.5" spans="1:15">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -6751,7 +7300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="16.5">
+    <row r="82" ht="16.5" spans="1:15">
       <c r="A82" s="10">
         <v>81</v>
       </c>
@@ -6789,7 +7338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="16.5">
+    <row r="83" ht="16.5" spans="1:10">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6821,7 +7370,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="16.5">
+    <row r="84" ht="16.5" spans="1:10">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -6853,7 +7402,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="16.5">
+    <row r="85" ht="16.5" spans="1:10">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -6885,7 +7434,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="16.5">
+    <row r="86" ht="16.5" spans="1:10">
       <c r="A86" s="10">
         <v>85</v>
       </c>
@@ -6917,7 +7466,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="16.5">
+    <row r="87" ht="16.5" spans="1:10">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -6949,7 +7498,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="16.5">
+    <row r="88" ht="16.5" spans="1:10">
       <c r="A88" s="10">
         <v>87</v>
       </c>
@@ -6981,7 +7530,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="16.5">
+    <row r="89" ht="16.5" spans="1:10">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -7013,7 +7562,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="16.5">
+    <row r="90" ht="16.5" spans="1:10">
       <c r="A90" s="10">
         <v>89</v>
       </c>
@@ -7045,7 +7594,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="16.5">
+    <row r="91" ht="16.5" spans="1:10">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -7077,7 +7626,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="16.5">
+    <row r="92" ht="16.5" spans="1:10">
       <c r="A92" s="10">
         <v>91</v>
       </c>
@@ -7109,7 +7658,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="16.5">
+    <row r="93" ht="16.5" spans="1:10">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -7141,7 +7690,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="16.5">
+    <row r="94" ht="16.5" spans="1:17">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -7185,7 +7734,7 @@
         <v>1581177599</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="16.5">
+    <row r="95" ht="16.5" spans="1:10">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -7217,7 +7766,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="16.5">
+    <row r="96" ht="16.5" spans="1:10">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -7249,7 +7798,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="16.5">
+    <row r="97" ht="16.5" spans="1:14">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -7284,7 +7833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="16.5">
+    <row r="98" ht="16.5" spans="1:14">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -7319,7 +7868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="16.5">
+    <row r="99" ht="16.5" spans="1:14">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -7354,7 +7903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="16.5">
+    <row r="100" ht="16.5" spans="1:14">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -7389,7 +7938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="16.5">
+    <row r="101" ht="16.5" spans="1:14">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -7424,7 +7973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="16.5">
+    <row r="102" ht="16.5" spans="1:14">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -7459,7 +8008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="16.5">
+    <row r="103" ht="16.5" spans="1:14">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -7494,7 +8043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="16.5">
+    <row r="104" ht="16.5" spans="1:14">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -7529,7 +8078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="16.5">
+    <row r="105" ht="16.5" spans="1:14">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -7564,7 +8113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="16.5">
+    <row r="106" ht="16.5" spans="1:14">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -7599,7 +8148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="16.5">
+    <row r="107" ht="16.5" spans="1:14">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -7636,7 +8185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="16.5">
+    <row r="108" ht="16.5" spans="1:14">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -7673,7 +8222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="16.5">
+    <row r="109" ht="16.5" spans="1:10">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -7705,7 +8254,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="16.5">
+    <row r="110" ht="16.5" spans="1:12">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -7738,7 +8287,7 @@
       </c>
       <c r="L110" s="14"/>
     </row>
-    <row r="111" spans="1:14" ht="16.5">
+    <row r="111" ht="16.5" spans="1:14">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -7776,7 +8325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="16.5">
+    <row r="112" ht="16.5" spans="1:14">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -7814,7 +8363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="16.5">
+    <row r="113" ht="16.5" spans="1:14">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -7852,7 +8401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="16.5">
+    <row r="114" ht="16.5" spans="1:14">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -7890,7 +8439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="16.5">
+    <row r="115" ht="16.5" spans="1:14">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -7928,7 +8477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="16.5">
+    <row r="116" ht="16.5" spans="1:14">
       <c r="A116" s="10">
         <v>115</v>
       </c>
@@ -7966,7 +8515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="16.5">
+    <row r="117" ht="16.5" spans="1:12">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -8000,7 +8549,7 @@
       <c r="K117" s="14"/>
       <c r="L117" s="14"/>
     </row>
-    <row r="118" spans="1:14" ht="16.5">
+    <row r="118" ht="16.5" spans="1:10">
       <c r="A118" s="10">
         <v>117</v>
       </c>
@@ -8032,7 +8581,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="16.5">
+    <row r="119" ht="16.5" spans="1:10">
       <c r="A119" s="10">
         <v>118</v>
       </c>
@@ -8064,7 +8613,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16.5">
+    <row r="120" ht="16.5" spans="1:10">
       <c r="A120" s="10">
         <v>119</v>
       </c>
@@ -8096,7 +8645,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="16.5">
+    <row r="121" ht="16.5" spans="1:10">
       <c r="A121" s="10">
         <v>120</v>
       </c>
@@ -8128,7 +8677,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="16.5">
+    <row r="122" ht="16.5" spans="1:10">
       <c r="A122" s="10">
         <v>121</v>
       </c>
@@ -8160,7 +8709,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="16.5">
+    <row r="123" ht="16.5" spans="1:14">
       <c r="A123" s="10">
         <v>122</v>
       </c>
@@ -8195,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="16.5">
+    <row r="124" ht="16.5" spans="1:14">
       <c r="A124" s="10">
         <v>123</v>
       </c>
@@ -8230,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="16.5">
+    <row r="125" ht="16.5" spans="1:14">
       <c r="A125" s="10">
         <v>124</v>
       </c>
@@ -8265,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="16.5">
+    <row r="126" ht="16.5" spans="1:14">
       <c r="A126" s="10">
         <v>125</v>
       </c>
@@ -8300,7 +8849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="16.5">
+    <row r="127" ht="16.5" spans="1:14">
       <c r="A127" s="10">
         <v>126</v>
       </c>
@@ -8335,7 +8884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="16.5">
+    <row r="128" ht="16.5" spans="1:14">
       <c r="A128" s="10">
         <v>127</v>
       </c>
@@ -8370,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="16.5">
+    <row r="129" ht="16.5" spans="1:14">
       <c r="A129" s="10">
         <v>128</v>
       </c>
@@ -8405,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="16.5">
+    <row r="130" ht="16.5" spans="1:14">
       <c r="A130" s="10">
         <v>129</v>
       </c>
@@ -8440,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="16.5">
+    <row r="131" ht="16.5" spans="1:10">
       <c r="A131" s="10">
         <v>130</v>
       </c>
@@ -8472,7 +9021,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:10">
       <c r="A132" s="10">
         <v>131</v>
       </c>
@@ -8504,7 +9053,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:10">
       <c r="A133" s="10">
         <v>132</v>
       </c>
@@ -8536,7 +9085,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:10">
       <c r="A134" s="10">
         <v>133</v>
       </c>
@@ -8568,7 +9117,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:10">
       <c r="A135" s="10">
         <v>134</v>
       </c>
@@ -8600,7 +9149,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:10">
       <c r="A136" s="10">
         <v>135</v>
       </c>
@@ -8632,7 +9181,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:10">
       <c r="A137" s="10">
         <v>136</v>
       </c>
@@ -8664,7 +9213,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:10">
       <c r="A138" s="10">
         <v>137</v>
       </c>
@@ -8696,7 +9245,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:10">
       <c r="A139" s="10">
         <v>138</v>
       </c>
@@ -8728,7 +9277,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:10">
       <c r="A140" s="10">
         <v>139</v>
       </c>
@@ -8760,7 +9309,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:10">
       <c r="A141" s="10">
         <v>140</v>
       </c>
@@ -8792,7 +9341,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:10">
       <c r="A142" s="10">
         <v>141</v>
       </c>
@@ -8824,7 +9373,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:10">
       <c r="A143" s="10">
         <v>142</v>
       </c>
@@ -8856,7 +9405,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:10">
       <c r="A144" s="10">
         <v>143</v>
       </c>
@@ -8888,7 +9437,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:10">
       <c r="A145" s="10">
         <v>144</v>
       </c>
@@ -8920,7 +9469,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="146" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="146" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -8952,7 +9501,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="147" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -8984,7 +9533,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="148" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="148" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -9016,7 +9565,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="149" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="149" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -9048,7 +9597,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="150" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="150" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -9080,7 +9629,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="151" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -9112,7 +9661,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="152" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="152" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -9144,7 +9693,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="153" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="153" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -9176,7 +9725,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="154" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="154" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -9208,7 +9757,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="3" customFormat="1">
+    <row r="155" s="3" customFormat="1" spans="1:10">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -9240,7 +9789,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="156" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="156" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -9272,7 +9821,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="157" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="157" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -9310,7 +9859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="158" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -9348,7 +9897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="159" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -9386,7 +9935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="160" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -9424,7 +9973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="161" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -9462,7 +10011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="2" customFormat="1" ht="16.5">
+    <row r="162" s="2" customFormat="1" ht="16.5" spans="1:14">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -9497,7 +10046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:14" s="2" customFormat="1" ht="16.5">
+    <row r="163" s="2" customFormat="1" ht="16.5" spans="1:14">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -9532,7 +10081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:14" s="2" customFormat="1" ht="16.5">
+    <row r="164" s="2" customFormat="1" ht="16.5" spans="1:14">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -9567,7 +10116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="2" customFormat="1" ht="16.5">
+    <row r="165" s="2" customFormat="1" ht="16.5" spans="1:14">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -9602,7 +10151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:14" s="2" customFormat="1" ht="16.5">
+    <row r="166" s="2" customFormat="1" ht="16.5" spans="1:14">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -9637,7 +10186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="167" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -9672,7 +10221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="168" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -9707,7 +10256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="169" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -9742,7 +10291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="170" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -9777,7 +10326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="171" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -9812,7 +10361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="172" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -9844,7 +10393,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="173" spans="1:14" s="4" customFormat="1">
+    <row r="173" s="4" customFormat="1" spans="1:10">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -9876,7 +10425,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="174" spans="1:14" s="4" customFormat="1">
+    <row r="174" s="4" customFormat="1" spans="1:10">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -9908,7 +10457,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="175" spans="1:14" s="4" customFormat="1">
+    <row r="175" s="4" customFormat="1" spans="1:10">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -9940,7 +10489,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="176" spans="1:14" s="5" customFormat="1">
+    <row r="176" s="5" customFormat="1" spans="1:10">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -9972,7 +10521,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="177" spans="1:15" s="6" customFormat="1">
+    <row r="177" s="6" customFormat="1" spans="1:10">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -10004,7 +10553,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="16.5">
+    <row r="178" ht="16.5" spans="1:14">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -10041,7 +10590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="16.5">
+    <row r="179" ht="16.5" spans="1:14">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -10078,7 +10627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="16.5">
+    <row r="180" ht="16.5" spans="1:14">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -10115,7 +10664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:15" s="6" customFormat="1">
+    <row r="181" s="6" customFormat="1" spans="1:10">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -10147,7 +10696,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="182" spans="1:15" s="5" customFormat="1">
+    <row r="182" s="5" customFormat="1" spans="1:15">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -10185,7 +10734,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="183" spans="1:15" s="5" customFormat="1">
+    <row r="183" s="5" customFormat="1" spans="1:15">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -10223,7 +10772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:15" s="5" customFormat="1">
+    <row r="184" s="5" customFormat="1" spans="1:15">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -10261,7 +10810,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="185" spans="1:15" s="7" customFormat="1">
+    <row r="185" s="7" customFormat="1" spans="1:14">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -10296,7 +10845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:15" s="7" customFormat="1">
+    <row r="186" s="7" customFormat="1" spans="1:14">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -10331,7 +10880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:15" s="7" customFormat="1">
+    <row r="187" s="7" customFormat="1" spans="1:14">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -10366,7 +10915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:15" s="7" customFormat="1">
+    <row r="188" s="7" customFormat="1" spans="1:14">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -10401,7 +10950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:15" s="7" customFormat="1">
+    <row r="189" s="7" customFormat="1" spans="1:14">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -10436,7 +10985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:15" s="7" customFormat="1">
+    <row r="190" s="7" customFormat="1" spans="1:14">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -10471,7 +11020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:15" s="7" customFormat="1">
+    <row r="191" s="7" customFormat="1" spans="1:14">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -10506,7 +11055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:14">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -13761,7 +14310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:14" s="3" customFormat="1">
+    <row r="285" s="3" customFormat="1" spans="1:10">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -13793,7 +14342,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="286" spans="1:14" s="3" customFormat="1">
+    <row r="286" s="3" customFormat="1" spans="1:10">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -13825,7 +14374,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="287" spans="1:14" s="3" customFormat="1">
+    <row r="287" s="3" customFormat="1" spans="1:10">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -13857,7 +14406,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="288" spans="1:14" s="3" customFormat="1">
+    <row r="288" s="3" customFormat="1" spans="1:10">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -13889,7 +14438,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="289" spans="1:12" s="3" customFormat="1">
+    <row r="289" s="3" customFormat="1" spans="1:10">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -13921,7 +14470,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="290" spans="1:12" s="3" customFormat="1">
+    <row r="290" s="3" customFormat="1" spans="1:10">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -13953,7 +14502,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="291" spans="1:12" s="8" customFormat="1">
+    <row r="291" s="8" customFormat="1" spans="1:10">
       <c r="A291" s="8">
         <v>290</v>
       </c>
@@ -13985,7 +14534,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="292" spans="1:12" s="3" customFormat="1" ht="16.5">
+    <row r="292" s="3" customFormat="1" ht="16.5" spans="1:12">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -14020,7 +14569,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="293" spans="1:12" s="3" customFormat="1" ht="16.5">
+    <row r="293" s="3" customFormat="1" ht="16.5" spans="1:12">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -14055,7 +14604,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="294" spans="1:12" s="3" customFormat="1" ht="16.5">
+    <row r="294" s="3" customFormat="1" ht="16.5" spans="1:12">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -14090,7 +14639,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="295" spans="1:12" s="3" customFormat="1">
+    <row r="295" s="3" customFormat="1" spans="1:10">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -14122,7 +14671,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="296" spans="1:12" s="3" customFormat="1">
+    <row r="296" s="3" customFormat="1" spans="1:10">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -14154,7 +14703,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="297" spans="1:12" s="3" customFormat="1">
+    <row r="297" s="3" customFormat="1" spans="1:10">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -14186,7 +14735,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="298" spans="1:12" s="3" customFormat="1">
+    <row r="298" s="3" customFormat="1" spans="1:10">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -14218,7 +14767,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="299" spans="1:12" s="3" customFormat="1" ht="16.5">
+    <row r="299" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -14250,7 +14799,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="300" spans="1:12" s="3" customFormat="1" ht="16.5">
+    <row r="300" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A300" s="3">
         <v>299</v>
       </c>
@@ -14282,7 +14831,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="301" spans="1:12" s="3" customFormat="1" ht="16.5">
+    <row r="301" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -14314,7 +14863,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="302" spans="1:12" s="3" customFormat="1" ht="16.5">
+    <row r="302" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A302" s="3">
         <v>301</v>
       </c>
@@ -14346,7 +14895,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="303" spans="1:12" s="3" customFormat="1" ht="16.5">
+    <row r="303" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A303" s="3">
         <v>302</v>
       </c>
@@ -14378,7 +14927,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="304" spans="1:12" s="3" customFormat="1" ht="16.5">
+    <row r="304" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A304" s="3">
         <v>303</v>
       </c>
@@ -14410,7 +14959,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="305" spans="1:12" s="3" customFormat="1" ht="16.5">
+    <row r="305" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -14442,7 +14991,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="306" spans="1:12" s="3" customFormat="1" ht="16.5">
+    <row r="306" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A306" s="3">
         <v>305</v>
       </c>
@@ -14474,7 +15023,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="307" spans="1:12" s="3" customFormat="1" ht="16.5">
+    <row r="307" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -14506,7 +15055,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="308" spans="1:12" s="9" customFormat="1" ht="16.5">
+    <row r="308" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A308" s="3">
         <v>307</v>
       </c>
@@ -14544,7 +15093,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="309" spans="1:12" s="9" customFormat="1" ht="16.5">
+    <row r="309" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A309" s="3">
         <v>308</v>
       </c>
@@ -14582,7 +15131,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="310" spans="1:12" s="9" customFormat="1" ht="16.5">
+    <row r="310" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A310" s="3">
         <v>309</v>
       </c>
@@ -14620,7 +15169,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="311" spans="1:12" s="9" customFormat="1" ht="16.5">
+    <row r="311" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -14658,7 +15207,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="312" spans="1:12" s="9" customFormat="1" ht="16.5">
+    <row r="312" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A312" s="3">
         <v>311</v>
       </c>
@@ -14696,7 +15245,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="313" spans="1:12" s="9" customFormat="1" ht="16.5">
+    <row r="313" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -14734,7 +15283,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="314" spans="1:12" s="3" customFormat="1" ht="16.5">
+    <row r="314" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A314" s="3">
         <v>313</v>
       </c>
@@ -14766,7 +15315,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="16.5">
+    <row r="315" ht="16.5" spans="1:12">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -14801,7 +15350,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="16.5">
+    <row r="316" ht="16.5" spans="1:12">
       <c r="A316" s="3">
         <v>315</v>
       </c>
@@ -14836,7 +15385,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="16.5">
+    <row r="317" ht="16.5" spans="1:12">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -14871,7 +15420,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="16.5">
+    <row r="318" ht="16.5" spans="1:12">
       <c r="A318" s="3">
         <v>317</v>
       </c>
@@ -14906,7 +15455,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:10">
       <c r="A319" s="3">
         <v>318</v>
       </c>
@@ -15005,7 +15554,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="15.75">
+    <row r="322" ht="15.75" spans="1:10">
       <c r="A322" s="10">
         <v>321</v>
       </c>
@@ -15118,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="F325" s="41" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="G325" s="10">
         <v>1</v>
@@ -15130,7 +15679,7 @@
         <v>1016</v>
       </c>
       <c r="J325" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -15141,7 +15690,7 @@
         <v>325</v>
       </c>
       <c r="C326" s="41" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D326" s="10">
         <v>-1</v>
@@ -15150,25 +15699,27 @@
         <v>1</v>
       </c>
       <c r="F326" s="41" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G326" s="10">
+        <v>1</v>
+      </c>
+      <c r="H326" s="10">
+        <v>1</v>
+      </c>
+      <c r="I326" s="41" t="s">
         <v>1020</v>
       </c>
-      <c r="G326" s="10">
-        <v>1</v>
-      </c>
-      <c r="H326" s="10">
-        <v>1</v>
-      </c>
-      <c r="I326" s="41" t="s">
-        <v>1017</v>
-      </c>
       <c r="J326" s="41" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q324"/>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:Q326">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_6.8/item_config.xlsx
+++ b/config_6.8/item_config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1027">
   <si>
     <t>id|行号</t>
   </si>
@@ -3433,25 +3433,40 @@
     <t>prop_super_treasure_key_1</t>
   </si>
   <si>
+    <t>cjdb_bg_jys</t>
+  </si>
+  <si>
+    <t>金钥匙</t>
+  </si>
+  <si>
+    <t>在夺宝中开启普通宝箱</t>
+  </si>
+  <si>
+    <t>prop_super_treasure_key_2</t>
+  </si>
+  <si>
     <t>cjdb_bg_ys</t>
   </si>
   <si>
-    <t>金钥匙</t>
-  </si>
-  <si>
-    <t>在夺宝中开启普通宝箱</t>
-  </si>
-  <si>
-    <t>prop_super_treasure_key_2</t>
-  </si>
-  <si>
-    <t>cjdb_bg_jys</t>
-  </si>
-  <si>
     <t>银钥匙</t>
   </si>
   <si>
     <t>在夺宝中开启豪华宝箱</t>
+  </si>
+  <si>
+    <t>prop_any_dice_1</t>
+  </si>
+  <si>
+    <t>金骰子</t>
+  </si>
+  <si>
+    <t>在夺宝中获取步数</t>
+  </si>
+  <si>
+    <t>prop_any_dice_2</t>
+  </si>
+  <si>
+    <t>银骰子</t>
   </si>
 </sst>
 </file>
@@ -3459,12 +3474,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3523,25 +3538,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3559,26 +3557,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3597,8 +3579,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3622,7 +3605,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3642,43 +3685,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3735,7 +3743,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3747,19 +3827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3777,31 +3851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3819,7 +3875,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3831,91 +3911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3970,41 +3966,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4016,15 +3977,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4046,9 +3998,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4060,10 +4056,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4072,137 +4068,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4328,7 +4324,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4652,12 +4648,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q326"/>
+  <dimension ref="A1:Q328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A326" sqref="A326"/>
+      <selection pane="bottomLeft" activeCell="A327" sqref="A327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15657,7 +15653,7 @@
       <c r="B325" s="10">
         <v>324</v>
       </c>
-      <c r="C325" s="41" t="s">
+      <c r="C325" s="14" t="s">
         <v>1014</v>
       </c>
       <c r="D325" s="10">
@@ -15666,7 +15662,7 @@
       <c r="E325" s="10">
         <v>1</v>
       </c>
-      <c r="F325" s="41" t="s">
+      <c r="F325" s="14" t="s">
         <v>1015</v>
       </c>
       <c r="G325" s="10">
@@ -15675,10 +15671,10 @@
       <c r="H325" s="10">
         <v>1</v>
       </c>
-      <c r="I325" s="41" t="s">
+      <c r="I325" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="J325" s="41" t="s">
+      <c r="J325" s="14" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -15689,7 +15685,7 @@
       <c r="B326" s="10">
         <v>325</v>
       </c>
-      <c r="C326" s="41" t="s">
+      <c r="C326" s="14" t="s">
         <v>1018</v>
       </c>
       <c r="D326" s="10">
@@ -15698,7 +15694,7 @@
       <c r="E326" s="10">
         <v>1</v>
       </c>
-      <c r="F326" s="41" t="s">
+      <c r="F326" s="14" t="s">
         <v>1019</v>
       </c>
       <c r="G326" s="10">
@@ -15707,11 +15703,75 @@
       <c r="H326" s="10">
         <v>1</v>
       </c>
-      <c r="I326" s="41" t="s">
+      <c r="I326" s="14" t="s">
         <v>1020</v>
       </c>
-      <c r="J326" s="41" t="s">
+      <c r="J326" s="14" t="s">
         <v>1021</v>
+      </c>
+    </row>
+    <row r="327" ht="15.75" spans="1:10">
+      <c r="A327" s="10">
+        <v>326</v>
+      </c>
+      <c r="B327" s="10">
+        <v>326</v>
+      </c>
+      <c r="C327" s="41" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D327" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E327" s="10">
+        <v>1</v>
+      </c>
+      <c r="F327" s="14" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G327" s="10">
+        <v>1</v>
+      </c>
+      <c r="H327" s="10">
+        <v>1</v>
+      </c>
+      <c r="I327" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J327" s="10" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="328" ht="15.75" spans="1:10">
+      <c r="A328" s="10">
+        <v>327</v>
+      </c>
+      <c r="B328" s="10">
+        <v>327</v>
+      </c>
+      <c r="C328" s="41" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D328" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E328" s="10">
+        <v>1</v>
+      </c>
+      <c r="F328" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G328" s="10">
+        <v>1</v>
+      </c>
+      <c r="H328" s="10">
+        <v>1</v>
+      </c>
+      <c r="I328" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J328" s="10" t="s">
+        <v>1024</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.8/item_config.xlsx
+++ b/config_6.8/item_config.xlsx
@@ -3412,7 +3412,7 @@
     <t>ty_icon_debjc88</t>
   </si>
   <si>
-    <t>海王炮台加成卡</t>
+    <t>炮台加成卡</t>
   </si>
   <si>
     <t>海王炮台加成8%</t>
@@ -3471,10 +3471,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3536,39 +3536,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3586,16 +3580,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3610,7 +3603,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3624,29 +3655,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3655,24 +3663,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3740,7 +3740,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3752,37 +3800,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3794,31 +3824,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3836,13 +3848,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3854,61 +3908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3948,52 +3948,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4022,6 +3981,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4039,9 +4037,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4053,10 +4053,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4065,133 +4065,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4648,9 +4648,9 @@
   <dimension ref="A1:Q328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+      <selection pane="bottomLeft" activeCell="E331" sqref="E331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_6.8/item_config.xlsx
+++ b/config_6.8/item_config.xlsx
@@ -3406,7 +3406,7 @@
     <t>用于参加福气达人排行榜</t>
   </si>
   <si>
-    <t>obj_aqunman_add8</t>
+    <t>obj_aquaman_add8</t>
   </si>
   <si>
     <t>ty_icon_debjc88</t>
@@ -3418,7 +3418,7 @@
     <t>海王炮台加成8%</t>
   </si>
   <si>
-    <t>obj_aqunman_add2</t>
+    <t>obj_aquaman_add2</t>
   </si>
   <si>
     <t>ty_icon_debjc2</t>
@@ -3471,10 +3471,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3534,33 +3534,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3573,25 +3571,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3603,14 +3587,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3632,16 +3609,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3649,7 +3619,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3663,16 +3671,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3740,19 +3740,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3770,19 +3776,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3794,25 +3800,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3830,7 +3830,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3842,67 +3896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3948,24 +3948,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3983,9 +3965,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4001,6 +4003,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4034,17 +4045,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4053,10 +4053,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4065,10 +4065,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4077,118 +4077,118 @@
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4650,7 +4650,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E331" sqref="E331"/>
+      <selection pane="bottomLeft" activeCell="C330" sqref="C330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_6.8/item_config.xlsx
+++ b/config_6.8/item_config.xlsx
@@ -10,14 +10,14 @@
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|道具配置'!$A$1:$Q$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|道具配置'!$A$1:$Q$328</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1026">
   <si>
     <t>id|行号</t>
   </si>
@@ -1764,9 +1764,6 @@
     <t>act_ty_by_drop_7</t>
   </si>
   <si>
-    <t>欢乐券</t>
-  </si>
-  <si>
     <t>掉落物活动通用道具</t>
   </si>
   <si>
@@ -3475,8 +3472,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -3537,9 +3534,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3557,18 +3587,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3579,25 +3609,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3606,6 +3619,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3620,36 +3641,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3663,19 +3663,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3684,6 +3676,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -3743,7 +3740,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3755,31 +3824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3791,13 +3836,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3809,37 +3872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3851,31 +3890,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3887,31 +3908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3952,6 +3949,65 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3981,65 +4037,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4056,10 +4053,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4068,137 +4065,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4651,9 +4648,9 @@
   <dimension ref="A1:Q328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A327" sqref="A327"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9011,10 +9008,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J131" s="30" t="s">
         <v>465</v>
-      </c>
-      <c r="J131" s="30" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -9025,7 +9022,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D132" s="3">
         <v>-1</v>
@@ -9043,10 +9040,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="J132" s="24" t="s">
         <v>468</v>
-      </c>
-      <c r="J132" s="24" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -9057,7 +9054,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D133" s="3">
         <v>-1</v>
@@ -9075,10 +9072,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J133" s="24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -9089,7 +9086,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D134" s="3">
         <v>-1</v>
@@ -9107,10 +9104,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J134" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -9121,7 +9118,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D135" s="3">
         <v>-1</v>
@@ -9139,10 +9136,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J135" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -9153,7 +9150,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D136" s="3">
         <v>-1</v>
@@ -9171,10 +9168,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J136" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -9185,7 +9182,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D137" s="3">
         <v>-1</v>
@@ -9203,10 +9200,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J137" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -9217,7 +9214,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D138" s="10">
         <v>-1</v>
@@ -9235,10 +9232,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -9249,7 +9246,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D139" s="10">
         <v>-1</v>
@@ -9267,10 +9264,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -9281,7 +9278,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D140" s="10">
         <v>-1</v>
@@ -9299,10 +9296,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -9313,7 +9310,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D141" s="10">
         <v>-1</v>
@@ -9331,10 +9328,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="J141" s="14" t="s">
         <v>487</v>
-      </c>
-      <c r="J141" s="14" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -9345,7 +9342,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D142" s="10">
         <v>-1</v>
@@ -9363,10 +9360,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="J142" s="14" t="s">
         <v>490</v>
-      </c>
-      <c r="J142" s="14" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -9377,7 +9374,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D143" s="10">
         <v>-1</v>
@@ -9395,10 +9392,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="J143" s="14" t="s">
         <v>493</v>
-      </c>
-      <c r="J143" s="14" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -9409,16 +9406,16 @@
         <v>143</v>
       </c>
       <c r="C144" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D144" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E144" s="10">
+        <v>1</v>
+      </c>
+      <c r="F144" s="14" t="s">
         <v>495</v>
-      </c>
-      <c r="D144" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E144" s="10">
-        <v>1</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>496</v>
       </c>
       <c r="G144" s="10">
         <v>0</v>
@@ -9427,10 +9424,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="J144" s="14" t="s">
         <v>497</v>
-      </c>
-      <c r="J144" s="14" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -9441,16 +9438,16 @@
         <v>144</v>
       </c>
       <c r="C145" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D145" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E145" s="10">
+        <v>1</v>
+      </c>
+      <c r="F145" s="14" t="s">
         <v>499</v>
-      </c>
-      <c r="D145" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E145" s="10">
-        <v>1</v>
-      </c>
-      <c r="F145" s="14" t="s">
-        <v>500</v>
       </c>
       <c r="G145" s="10">
         <v>0</v>
@@ -9459,10 +9456,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="J145" s="14" t="s">
         <v>501</v>
-      </c>
-      <c r="J145" s="14" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="146" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9473,7 +9470,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D146" s="3">
         <v>-1</v>
@@ -9491,10 +9488,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="J146" s="36" t="s">
         <v>504</v>
-      </c>
-      <c r="J146" s="36" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="147" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9505,7 +9502,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D147" s="3">
         <v>-1</v>
@@ -9526,7 +9523,7 @@
         <v>128</v>
       </c>
       <c r="J147" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="148" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9537,7 +9534,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D148" s="3">
         <v>-1</v>
@@ -9558,7 +9555,7 @@
         <v>133</v>
       </c>
       <c r="J148" s="36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="149" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9569,7 +9566,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D149" s="3">
         <v>-1</v>
@@ -9587,10 +9584,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J149" s="36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="150" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9601,7 +9598,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D150" s="3">
         <v>-1</v>
@@ -9622,7 +9619,7 @@
         <v>128</v>
       </c>
       <c r="J150" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="151" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9633,7 +9630,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D151" s="3">
         <v>-1</v>
@@ -9654,7 +9651,7 @@
         <v>133</v>
       </c>
       <c r="J151" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="152" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9665,7 +9662,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D152" s="3">
         <v>-1</v>
@@ -9683,10 +9680,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J152" s="36" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="153" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9697,7 +9694,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D153" s="3">
         <v>-1</v>
@@ -9718,7 +9715,7 @@
         <v>128</v>
       </c>
       <c r="J153" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="154" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9729,7 +9726,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D154" s="3">
         <v>-1</v>
@@ -9750,7 +9747,7 @@
         <v>133</v>
       </c>
       <c r="J154" s="36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="155" s="3" customFormat="1" spans="1:10">
@@ -9761,16 +9758,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="D155" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1</v>
+      </c>
+      <c r="F155" s="24" t="s">
         <v>522</v>
-      </c>
-      <c r="D155" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="3">
-        <v>1</v>
-      </c>
-      <c r="F155" s="24" t="s">
-        <v>523</v>
       </c>
       <c r="G155" s="3">
         <v>0</v>
@@ -9782,7 +9779,7 @@
         <v>279</v>
       </c>
       <c r="J155" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="156" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9793,16 +9790,16 @@
         <v>155</v>
       </c>
       <c r="C156" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="D156" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E156" s="3">
+        <v>1</v>
+      </c>
+      <c r="F156" s="24" t="s">
         <v>525</v>
-      </c>
-      <c r="D156" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E156" s="3">
-        <v>1</v>
-      </c>
-      <c r="F156" s="24" t="s">
-        <v>526</v>
       </c>
       <c r="G156" s="3">
         <v>0</v>
@@ -9811,10 +9808,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="J156" s="36" t="s">
         <v>527</v>
-      </c>
-      <c r="J156" s="36" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="157" s="3" customFormat="1" ht="16.5" spans="1:14">
@@ -9825,16 +9822,16 @@
         <v>156</v>
       </c>
       <c r="C157" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="D157" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1</v>
+      </c>
+      <c r="F157" s="24" t="s">
         <v>529</v>
-      </c>
-      <c r="D157" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E157" s="3">
-        <v>1</v>
-      </c>
-      <c r="F157" s="24" t="s">
-        <v>530</v>
       </c>
       <c r="G157" s="3">
         <v>1</v>
@@ -9843,13 +9840,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="J157" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="L157" s="24" t="s">
         <v>531</v>
-      </c>
-      <c r="J157" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="L157" s="24" t="s">
-        <v>532</v>
       </c>
       <c r="N157" s="3">
         <v>9</v>
@@ -9863,16 +9860,16 @@
         <v>157</v>
       </c>
       <c r="C158" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="D158" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1</v>
+      </c>
+      <c r="F158" s="24" t="s">
         <v>533</v>
-      </c>
-      <c r="D158" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E158" s="3">
-        <v>1</v>
-      </c>
-      <c r="F158" s="24" t="s">
-        <v>534</v>
       </c>
       <c r="G158" s="3">
         <v>1</v>
@@ -9881,13 +9878,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="J158" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="L158" s="24" t="s">
         <v>535</v>
-      </c>
-      <c r="J158" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="L158" s="24" t="s">
-        <v>536</v>
       </c>
       <c r="N158" s="3">
         <v>9</v>
@@ -9901,16 +9898,16 @@
         <v>158</v>
       </c>
       <c r="C159" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="D159" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E159" s="3">
+        <v>1</v>
+      </c>
+      <c r="F159" s="24" t="s">
         <v>537</v>
-      </c>
-      <c r="D159" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E159" s="3">
-        <v>1</v>
-      </c>
-      <c r="F159" s="24" t="s">
-        <v>538</v>
       </c>
       <c r="G159" s="3">
         <v>1</v>
@@ -9919,13 +9916,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="J159" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="L159" s="24" t="s">
         <v>539</v>
-      </c>
-      <c r="J159" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="L159" s="24" t="s">
-        <v>540</v>
       </c>
       <c r="N159" s="3">
         <v>9</v>
@@ -9939,16 +9936,16 @@
         <v>159</v>
       </c>
       <c r="C160" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="D160" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E160" s="3">
+        <v>1</v>
+      </c>
+      <c r="F160" s="24" t="s">
         <v>541</v>
-      </c>
-      <c r="D160" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E160" s="3">
-        <v>1</v>
-      </c>
-      <c r="F160" s="24" t="s">
-        <v>542</v>
       </c>
       <c r="G160" s="3">
         <v>1</v>
@@ -9957,13 +9954,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="J160" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="L160" s="24" t="s">
         <v>543</v>
-      </c>
-      <c r="J160" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="L160" s="24" t="s">
-        <v>544</v>
       </c>
       <c r="N160" s="3">
         <v>9</v>
@@ -9977,16 +9974,16 @@
         <v>160</v>
       </c>
       <c r="C161" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="D161" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1</v>
+      </c>
+      <c r="F161" s="24" t="s">
         <v>545</v>
-      </c>
-      <c r="D161" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E161" s="3">
-        <v>1</v>
-      </c>
-      <c r="F161" s="24" t="s">
-        <v>546</v>
       </c>
       <c r="G161" s="3">
         <v>1</v>
@@ -9995,13 +9992,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="J161" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="L161" s="24" t="s">
         <v>547</v>
-      </c>
-      <c r="J161" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="L161" s="24" t="s">
-        <v>548</v>
       </c>
       <c r="N161" s="3">
         <v>9</v>
@@ -10015,16 +10012,16 @@
         <v>161</v>
       </c>
       <c r="C162" s="32" t="s">
+        <v>548</v>
+      </c>
+      <c r="D162" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E162" s="2">
+        <v>1</v>
+      </c>
+      <c r="F162" s="18" t="s">
         <v>549</v>
-      </c>
-      <c r="D162" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E162" s="2">
-        <v>1</v>
-      </c>
-      <c r="F162" s="18" t="s">
-        <v>550</v>
       </c>
       <c r="G162" s="2">
         <v>1</v>
@@ -10033,10 +10030,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J162" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N162" s="2">
         <v>9</v>
@@ -10050,16 +10047,16 @@
         <v>162</v>
       </c>
       <c r="C163" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="D163" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+      <c r="F163" s="18" t="s">
         <v>552</v>
-      </c>
-      <c r="D163" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E163" s="2">
-        <v>1</v>
-      </c>
-      <c r="F163" s="18" t="s">
-        <v>553</v>
       </c>
       <c r="G163" s="2">
         <v>1</v>
@@ -10068,10 +10065,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N163" s="2">
         <v>9</v>
@@ -10085,16 +10082,16 @@
         <v>163</v>
       </c>
       <c r="C164" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="D164" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1</v>
+      </c>
+      <c r="F164" s="18" t="s">
         <v>555</v>
-      </c>
-      <c r="D164" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E164" s="2">
-        <v>1</v>
-      </c>
-      <c r="F164" s="18" t="s">
-        <v>556</v>
       </c>
       <c r="G164" s="2">
         <v>1</v>
@@ -10103,10 +10100,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J164" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N164" s="2">
         <v>9</v>
@@ -10120,16 +10117,16 @@
         <v>164</v>
       </c>
       <c r="C165" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="D165" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
+      <c r="F165" s="18" t="s">
         <v>558</v>
-      </c>
-      <c r="D165" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E165" s="2">
-        <v>1</v>
-      </c>
-      <c r="F165" s="18" t="s">
-        <v>559</v>
       </c>
       <c r="G165" s="2">
         <v>1</v>
@@ -10138,10 +10135,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J165" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N165" s="2">
         <v>9</v>
@@ -10155,16 +10152,16 @@
         <v>165</v>
       </c>
       <c r="C166" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="D166" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="2">
+        <v>1</v>
+      </c>
+      <c r="F166" s="18" t="s">
         <v>561</v>
-      </c>
-      <c r="D166" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="2">
-        <v>1</v>
-      </c>
-      <c r="F166" s="18" t="s">
-        <v>562</v>
       </c>
       <c r="G166" s="2">
         <v>1</v>
@@ -10173,10 +10170,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J166" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N166" s="2">
         <v>9</v>
@@ -10190,7 +10187,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D167" s="3">
         <v>-1</v>
@@ -10199,7 +10196,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G167" s="3">
         <v>1</v>
@@ -10208,10 +10205,10 @@
         <v>34</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J167" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N167" s="3">
         <v>9</v>
@@ -10225,7 +10222,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D168" s="3">
         <v>-1</v>
@@ -10234,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G168" s="3">
         <v>1</v>
@@ -10243,10 +10240,10 @@
         <v>34</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J168" s="24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N168" s="3">
         <v>9</v>
@@ -10260,7 +10257,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D169" s="3">
         <v>-1</v>
@@ -10269,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G169" s="3">
         <v>1</v>
@@ -10278,10 +10275,10 @@
         <v>34</v>
       </c>
       <c r="I169" s="24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J169" s="24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N169" s="3">
         <v>9</v>
@@ -10295,7 +10292,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D170" s="3">
         <v>-1</v>
@@ -10304,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G170" s="3">
         <v>1</v>
@@ -10313,10 +10310,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J170" s="24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N170" s="3">
         <v>9</v>
@@ -10330,7 +10327,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D171" s="3">
         <v>-1</v>
@@ -10339,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G171" s="3">
         <v>1</v>
@@ -10348,10 +10345,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J171" s="24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N171" s="3">
         <v>9</v>
@@ -10365,16 +10362,16 @@
         <v>171</v>
       </c>
       <c r="C172" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="D172" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E172" s="3">
+        <v>1</v>
+      </c>
+      <c r="F172" s="24" t="s">
         <v>574</v>
-      </c>
-      <c r="D172" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E172" s="3">
-        <v>1</v>
-      </c>
-      <c r="F172" s="24" t="s">
-        <v>575</v>
       </c>
       <c r="G172" s="3">
         <v>0</v>
@@ -10383,10 +10380,10 @@
         <v>33</v>
       </c>
       <c r="I172" s="24" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J172" s="24" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" spans="1:10">
@@ -10397,16 +10394,16 @@
         <v>172</v>
       </c>
       <c r="C173" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D173" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="4">
+        <v>1</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="D173" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E173" s="4">
-        <v>1</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>578</v>
       </c>
       <c r="G173" s="4">
         <v>1</v>
@@ -10415,10 +10412,10 @@
         <v>33</v>
       </c>
       <c r="I173" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="J173" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="J173" s="4" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" spans="1:10">
@@ -10429,16 +10426,16 @@
         <v>173</v>
       </c>
       <c r="C174" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D174" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="4">
+        <v>1</v>
+      </c>
+      <c r="F174" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="D174" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E174" s="4">
-        <v>1</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="G174" s="4">
         <v>1</v>
@@ -10447,10 +10444,10 @@
         <v>33</v>
       </c>
       <c r="I174" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="J174" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="J174" s="4" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="175" s="4" customFormat="1" spans="1:10">
@@ -10461,16 +10458,16 @@
         <v>174</v>
       </c>
       <c r="C175" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D175" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="4">
+        <v>1</v>
+      </c>
+      <c r="F175" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="D175" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E175" s="4">
-        <v>1</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="G175" s="4">
         <v>1</v>
@@ -10479,10 +10476,10 @@
         <v>33</v>
       </c>
       <c r="I175" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="J175" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="J175" s="4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="176" s="5" customFormat="1" spans="1:10">
@@ -10493,7 +10490,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D176" s="5">
         <v>-1</v>
@@ -10502,7 +10499,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G176" s="5">
         <v>0</v>
@@ -10511,10 +10508,10 @@
         <v>33</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="177" s="6" customFormat="1" spans="1:10">
@@ -10525,7 +10522,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D177" s="6">
         <v>-1</v>
@@ -10543,10 +10540,10 @@
         <v>33</v>
       </c>
       <c r="I177" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="J177" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="J177" s="6" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="178" ht="16.5" spans="1:14">
@@ -10557,16 +10554,16 @@
         <v>177</v>
       </c>
       <c r="C178" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="D178" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E178" s="10">
+        <v>1</v>
+      </c>
+      <c r="F178" s="14" t="s">
         <v>594</v>
-      </c>
-      <c r="D178" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E178" s="10">
-        <v>1</v>
-      </c>
-      <c r="F178" s="14" t="s">
-        <v>595</v>
       </c>
       <c r="G178" s="10">
         <v>1</v>
@@ -10575,10 +10572,10 @@
         <v>32</v>
       </c>
       <c r="I178" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="J178" s="14" t="s">
         <v>596</v>
-      </c>
-      <c r="J178" s="14" t="s">
-        <v>597</v>
       </c>
       <c r="K178" s="14"/>
       <c r="L178" s="14"/>
@@ -10594,16 +10591,16 @@
         <v>178</v>
       </c>
       <c r="C179" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="D179" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E179" s="10">
+        <v>1</v>
+      </c>
+      <c r="F179" s="14" t="s">
         <v>598</v>
-      </c>
-      <c r="D179" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E179" s="10">
-        <v>1</v>
-      </c>
-      <c r="F179" s="14" t="s">
-        <v>599</v>
       </c>
       <c r="G179" s="10">
         <v>1</v>
@@ -10612,10 +10609,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="J179" s="14" t="s">
         <v>600</v>
-      </c>
-      <c r="J179" s="14" t="s">
-        <v>601</v>
       </c>
       <c r="K179" s="14"/>
       <c r="L179" s="14"/>
@@ -10631,16 +10628,16 @@
         <v>179</v>
       </c>
       <c r="C180" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="D180" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E180" s="10">
+        <v>1</v>
+      </c>
+      <c r="F180" s="14" t="s">
         <v>602</v>
-      </c>
-      <c r="D180" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E180" s="10">
-        <v>1</v>
-      </c>
-      <c r="F180" s="14" t="s">
-        <v>603</v>
       </c>
       <c r="G180" s="10">
         <v>1</v>
@@ -10649,10 +10646,10 @@
         <v>33</v>
       </c>
       <c r="I180" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="J180" s="14" t="s">
         <v>604</v>
-      </c>
-      <c r="J180" s="14" t="s">
-        <v>605</v>
       </c>
       <c r="K180" s="14"/>
       <c r="L180" s="14"/>
@@ -10668,16 +10665,16 @@
         <v>180</v>
       </c>
       <c r="C181" s="34" t="s">
+        <v>605</v>
+      </c>
+      <c r="D181" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E181" s="6">
+        <v>1</v>
+      </c>
+      <c r="F181" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="D181" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E181" s="6">
-        <v>1</v>
-      </c>
-      <c r="F181" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="G181" s="6">
         <v>0</v>
@@ -10686,10 +10683,10 @@
         <v>33</v>
       </c>
       <c r="I181" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="J181" s="6" t="s">
         <v>608</v>
-      </c>
-      <c r="J181" s="6" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="182" s="5" customFormat="1" spans="1:15">
@@ -10700,16 +10697,16 @@
         <v>181</v>
       </c>
       <c r="C182" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="D182" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E182" s="5">
+        <v>1</v>
+      </c>
+      <c r="F182" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="D182" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E182" s="5">
-        <v>1</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>611</v>
       </c>
       <c r="G182" s="5">
         <v>1</v>
@@ -10718,13 +10715,13 @@
         <v>33</v>
       </c>
       <c r="I182" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="J182" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="J182" s="5" t="s">
+      <c r="L182" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="L182" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="O182" s="5">
         <v>57</v>
@@ -10738,16 +10735,16 @@
         <v>182</v>
       </c>
       <c r="C183" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="D183" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E183" s="5">
+        <v>1</v>
+      </c>
+      <c r="F183" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="D183" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E183" s="5">
-        <v>1</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>616</v>
       </c>
       <c r="G183" s="5">
         <v>1</v>
@@ -10756,13 +10753,13 @@
         <v>33</v>
       </c>
       <c r="I183" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="J183" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="J183" s="33" t="s">
+      <c r="L183" s="33" t="s">
         <v>618</v>
-      </c>
-      <c r="L183" s="33" t="s">
-        <v>619</v>
       </c>
       <c r="O183" s="5">
         <v>58</v>
@@ -10776,7 +10773,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D184" s="5">
         <v>-1</v>
@@ -10794,13 +10791,13 @@
         <v>33</v>
       </c>
       <c r="I184" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="J184" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="J184" s="33" t="s">
+      <c r="L184" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="L184" s="5" t="s">
-        <v>623</v>
       </c>
       <c r="O184" s="5">
         <v>59</v>
@@ -10814,28 +10811,28 @@
         <v>184</v>
       </c>
       <c r="C185" s="35" t="s">
+        <v>623</v>
+      </c>
+      <c r="D185" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E185" s="7">
+        <v>1</v>
+      </c>
+      <c r="F185" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="D185" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E185" s="7">
-        <v>1</v>
-      </c>
-      <c r="F185" s="7" t="s">
+      <c r="G185" s="7">
+        <v>1</v>
+      </c>
+      <c r="H185" s="7">
+        <v>1</v>
+      </c>
+      <c r="I185" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="J185" s="35" t="s">
         <v>625</v>
-      </c>
-      <c r="G185" s="7">
-        <v>1</v>
-      </c>
-      <c r="H185" s="7">
-        <v>1</v>
-      </c>
-      <c r="I185" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="J185" s="35" t="s">
-        <v>626</v>
       </c>
       <c r="N185" s="7">
         <v>16</v>
@@ -10849,16 +10846,16 @@
         <v>185</v>
       </c>
       <c r="C186" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D186" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E186" s="7">
+        <v>1</v>
+      </c>
+      <c r="F186" s="35" t="s">
         <v>627</v>
-      </c>
-      <c r="D186" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E186" s="7">
-        <v>1</v>
-      </c>
-      <c r="F186" s="35" t="s">
-        <v>628</v>
       </c>
       <c r="G186" s="7">
         <v>1</v>
@@ -10867,10 +10864,10 @@
         <v>2</v>
       </c>
       <c r="I186" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="J186" s="35" t="s">
         <v>629</v>
-      </c>
-      <c r="J186" s="35" t="s">
-        <v>630</v>
       </c>
       <c r="N186" s="7">
         <v>16</v>
@@ -10884,16 +10881,16 @@
         <v>186</v>
       </c>
       <c r="C187" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="D187" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E187" s="7">
+        <v>1</v>
+      </c>
+      <c r="F187" s="35" t="s">
         <v>631</v>
-      </c>
-      <c r="D187" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E187" s="7">
-        <v>1</v>
-      </c>
-      <c r="F187" s="35" t="s">
-        <v>632</v>
       </c>
       <c r="G187" s="7">
         <v>1</v>
@@ -10902,10 +10899,10 @@
         <v>3</v>
       </c>
       <c r="I187" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="J187" s="35" t="s">
         <v>633</v>
-      </c>
-      <c r="J187" s="35" t="s">
-        <v>634</v>
       </c>
       <c r="N187" s="7">
         <v>16</v>
@@ -10919,16 +10916,16 @@
         <v>187</v>
       </c>
       <c r="C188" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="D188" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E188" s="7">
+        <v>1</v>
+      </c>
+      <c r="F188" s="35" t="s">
         <v>635</v>
-      </c>
-      <c r="D188" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E188" s="7">
-        <v>1</v>
-      </c>
-      <c r="F188" s="35" t="s">
-        <v>636</v>
       </c>
       <c r="G188" s="7">
         <v>1</v>
@@ -10937,10 +10934,10 @@
         <v>4</v>
       </c>
       <c r="I188" s="35" t="s">
+        <v>636</v>
+      </c>
+      <c r="J188" s="35" t="s">
         <v>637</v>
-      </c>
-      <c r="J188" s="35" t="s">
-        <v>638</v>
       </c>
       <c r="N188" s="7">
         <v>16</v>
@@ -10954,16 +10951,16 @@
         <v>188</v>
       </c>
       <c r="C189" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="D189" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E189" s="7">
+        <v>1</v>
+      </c>
+      <c r="F189" s="35" t="s">
         <v>639</v>
-      </c>
-      <c r="D189" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E189" s="7">
-        <v>1</v>
-      </c>
-      <c r="F189" s="35" t="s">
-        <v>640</v>
       </c>
       <c r="G189" s="7">
         <v>1</v>
@@ -10972,10 +10969,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="35" t="s">
+        <v>640</v>
+      </c>
+      <c r="J189" s="35" t="s">
         <v>641</v>
-      </c>
-      <c r="J189" s="35" t="s">
-        <v>642</v>
       </c>
       <c r="N189" s="7">
         <v>16</v>
@@ -10989,16 +10986,16 @@
         <v>189</v>
       </c>
       <c r="C190" s="35" t="s">
+        <v>642</v>
+      </c>
+      <c r="D190" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E190" s="7">
+        <v>1</v>
+      </c>
+      <c r="F190" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="D190" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E190" s="7">
-        <v>1</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>644</v>
       </c>
       <c r="G190" s="7">
         <v>1</v>
@@ -11007,10 +11004,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J190" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N190" s="7">
         <v>16</v>
@@ -11024,16 +11021,16 @@
         <v>190</v>
       </c>
       <c r="C191" s="35" t="s">
+        <v>645</v>
+      </c>
+      <c r="D191" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E191" s="7">
+        <v>1</v>
+      </c>
+      <c r="F191" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="D191" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E191" s="7">
-        <v>1</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="G191" s="7">
         <v>1</v>
@@ -11042,10 +11039,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J191" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N191" s="7">
         <v>16</v>
@@ -11059,16 +11056,16 @@
         <v>191</v>
       </c>
       <c r="C192" s="35" t="s">
+        <v>648</v>
+      </c>
+      <c r="D192" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E192" s="7">
+        <v>1</v>
+      </c>
+      <c r="F192" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="D192" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E192" s="7">
-        <v>1</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>650</v>
       </c>
       <c r="G192" s="7">
         <v>1</v>
@@ -11077,10 +11074,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J192" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N192" s="7">
         <v>16</v>
@@ -11094,16 +11091,16 @@
         <v>192</v>
       </c>
       <c r="C193" s="35" t="s">
+        <v>651</v>
+      </c>
+      <c r="D193" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E193" s="7">
+        <v>1</v>
+      </c>
+      <c r="F193" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="D193" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E193" s="7">
-        <v>1</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>653</v>
       </c>
       <c r="G193" s="7">
         <v>1</v>
@@ -11112,10 +11109,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="35" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J193" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N193" s="7">
         <v>16</v>
@@ -11129,16 +11126,16 @@
         <v>193</v>
       </c>
       <c r="C194" s="35" t="s">
+        <v>654</v>
+      </c>
+      <c r="D194" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E194" s="7">
+        <v>1</v>
+      </c>
+      <c r="F194" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="D194" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E194" s="7">
-        <v>1</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="G194" s="7">
         <v>1</v>
@@ -11147,10 +11144,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="35" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J194" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N194" s="7">
         <v>16</v>
@@ -11164,16 +11161,16 @@
         <v>194</v>
       </c>
       <c r="C195" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="D195" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E195" s="7">
+        <v>1</v>
+      </c>
+      <c r="F195" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="D195" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E195" s="7">
-        <v>1</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>659</v>
       </c>
       <c r="G195" s="7">
         <v>1</v>
@@ -11182,10 +11179,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="35" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J195" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N195" s="7">
         <v>16</v>
@@ -11199,16 +11196,16 @@
         <v>195</v>
       </c>
       <c r="C196" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="D196" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E196" s="7">
+        <v>1</v>
+      </c>
+      <c r="F196" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="D196" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E196" s="7">
-        <v>1</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>662</v>
       </c>
       <c r="G196" s="7">
         <v>1</v>
@@ -11217,10 +11214,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="35" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J196" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N196" s="7">
         <v>16</v>
@@ -11234,16 +11231,16 @@
         <v>196</v>
       </c>
       <c r="C197" s="35" t="s">
+        <v>663</v>
+      </c>
+      <c r="D197" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E197" s="7">
+        <v>1</v>
+      </c>
+      <c r="F197" s="7" t="s">
         <v>664</v>
-      </c>
-      <c r="D197" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E197" s="7">
-        <v>1</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>665</v>
       </c>
       <c r="G197" s="7">
         <v>1</v>
@@ -11252,10 +11249,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="35" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J197" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N197" s="7">
         <v>16</v>
@@ -11269,16 +11266,16 @@
         <v>197</v>
       </c>
       <c r="C198" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="D198" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E198" s="7">
+        <v>1</v>
+      </c>
+      <c r="F198" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="D198" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E198" s="7">
-        <v>1</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>668</v>
       </c>
       <c r="G198" s="7">
         <v>1</v>
@@ -11287,10 +11284,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J198" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N198" s="7">
         <v>16</v>
@@ -11304,16 +11301,16 @@
         <v>198</v>
       </c>
       <c r="C199" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="D199" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E199" s="7">
+        <v>1</v>
+      </c>
+      <c r="F199" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="D199" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E199" s="7">
-        <v>1</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>671</v>
       </c>
       <c r="G199" s="7">
         <v>1</v>
@@ -11322,10 +11319,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="35" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J199" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N199" s="7">
         <v>16</v>
@@ -11339,16 +11336,16 @@
         <v>199</v>
       </c>
       <c r="C200" s="35" t="s">
+        <v>672</v>
+      </c>
+      <c r="D200" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E200" s="7">
+        <v>1</v>
+      </c>
+      <c r="F200" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="D200" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E200" s="7">
-        <v>1</v>
-      </c>
-      <c r="F200" s="7" t="s">
-        <v>674</v>
       </c>
       <c r="G200" s="7">
         <v>1</v>
@@ -11357,10 +11354,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="35" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J200" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N200" s="7">
         <v>16</v>
@@ -11374,16 +11371,16 @@
         <v>200</v>
       </c>
       <c r="C201" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="D201" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E201" s="7">
+        <v>1</v>
+      </c>
+      <c r="F201" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="D201" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E201" s="7">
-        <v>1</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>677</v>
       </c>
       <c r="G201" s="7">
         <v>1</v>
@@ -11392,10 +11389,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="35" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J201" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N201" s="7">
         <v>16</v>
@@ -11409,16 +11406,16 @@
         <v>201</v>
       </c>
       <c r="C202" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="D202" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E202" s="7">
+        <v>1</v>
+      </c>
+      <c r="F202" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="D202" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E202" s="7">
-        <v>1</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>680</v>
       </c>
       <c r="G202" s="7">
         <v>1</v>
@@ -11427,10 +11424,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="35" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J202" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N202" s="7">
         <v>16</v>
@@ -11444,16 +11441,16 @@
         <v>202</v>
       </c>
       <c r="C203" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="D203" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E203" s="7">
+        <v>1</v>
+      </c>
+      <c r="F203" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="D203" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E203" s="7">
-        <v>1</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>683</v>
       </c>
       <c r="G203" s="7">
         <v>1</v>
@@ -11462,10 +11459,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J203" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N203" s="7">
         <v>16</v>
@@ -11479,16 +11476,16 @@
         <v>203</v>
       </c>
       <c r="C204" s="35" t="s">
+        <v>684</v>
+      </c>
+      <c r="D204" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E204" s="7">
+        <v>1</v>
+      </c>
+      <c r="F204" s="7" t="s">
         <v>685</v>
-      </c>
-      <c r="D204" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E204" s="7">
-        <v>1</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>686</v>
       </c>
       <c r="G204" s="7">
         <v>1</v>
@@ -11497,10 +11494,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="35" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J204" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N204" s="7">
         <v>16</v>
@@ -11514,16 +11511,16 @@
         <v>204</v>
       </c>
       <c r="C205" s="35" t="s">
+        <v>687</v>
+      </c>
+      <c r="D205" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E205" s="7">
+        <v>1</v>
+      </c>
+      <c r="F205" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="D205" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E205" s="7">
-        <v>1</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>689</v>
       </c>
       <c r="G205" s="7">
         <v>1</v>
@@ -11532,10 +11529,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J205" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N205" s="7">
         <v>16</v>
@@ -11549,16 +11546,16 @@
         <v>205</v>
       </c>
       <c r="C206" s="35" t="s">
+        <v>690</v>
+      </c>
+      <c r="D206" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E206" s="7">
+        <v>1</v>
+      </c>
+      <c r="F206" s="7" t="s">
         <v>691</v>
-      </c>
-      <c r="D206" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E206" s="7">
-        <v>1</v>
-      </c>
-      <c r="F206" s="7" t="s">
-        <v>692</v>
       </c>
       <c r="G206" s="7">
         <v>1</v>
@@ -11567,10 +11564,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="35" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J206" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N206" s="7">
         <v>16</v>
@@ -11584,16 +11581,16 @@
         <v>206</v>
       </c>
       <c r="C207" s="35" t="s">
+        <v>693</v>
+      </c>
+      <c r="D207" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E207" s="7">
+        <v>1</v>
+      </c>
+      <c r="F207" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="D207" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E207" s="7">
-        <v>1</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>695</v>
       </c>
       <c r="G207" s="7">
         <v>1</v>
@@ -11602,10 +11599,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="35" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J207" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N207" s="7">
         <v>16</v>
@@ -11619,16 +11616,16 @@
         <v>207</v>
       </c>
       <c r="C208" s="35" t="s">
+        <v>696</v>
+      </c>
+      <c r="D208" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E208" s="7">
+        <v>1</v>
+      </c>
+      <c r="F208" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="D208" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E208" s="7">
-        <v>1</v>
-      </c>
-      <c r="F208" s="7" t="s">
-        <v>698</v>
       </c>
       <c r="G208" s="7">
         <v>1</v>
@@ -11637,10 +11634,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="35" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J208" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N208" s="7">
         <v>16</v>
@@ -11654,16 +11651,16 @@
         <v>208</v>
       </c>
       <c r="C209" s="35" t="s">
+        <v>699</v>
+      </c>
+      <c r="D209" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E209" s="7">
+        <v>1</v>
+      </c>
+      <c r="F209" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="D209" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E209" s="7">
-        <v>1</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>701</v>
       </c>
       <c r="G209" s="7">
         <v>1</v>
@@ -11672,10 +11669,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="35" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J209" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N209" s="7">
         <v>16</v>
@@ -11689,16 +11686,16 @@
         <v>209</v>
       </c>
       <c r="C210" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="D210" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E210" s="7">
+        <v>1</v>
+      </c>
+      <c r="F210" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="D210" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E210" s="7">
-        <v>1</v>
-      </c>
-      <c r="F210" s="7" t="s">
-        <v>704</v>
       </c>
       <c r="G210" s="7">
         <v>1</v>
@@ -11707,10 +11704,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J210" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N210" s="7">
         <v>16</v>
@@ -11724,16 +11721,16 @@
         <v>210</v>
       </c>
       <c r="C211" s="35" t="s">
+        <v>705</v>
+      </c>
+      <c r="D211" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E211" s="7">
+        <v>1</v>
+      </c>
+      <c r="F211" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="D211" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E211" s="7">
-        <v>1</v>
-      </c>
-      <c r="F211" s="7" t="s">
-        <v>707</v>
       </c>
       <c r="G211" s="7">
         <v>1</v>
@@ -11742,10 +11739,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="35" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J211" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N211" s="7">
         <v>16</v>
@@ -11759,16 +11756,16 @@
         <v>211</v>
       </c>
       <c r="C212" s="35" t="s">
+        <v>708</v>
+      </c>
+      <c r="D212" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E212" s="7">
+        <v>1</v>
+      </c>
+      <c r="F212" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="D212" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E212" s="7">
-        <v>1</v>
-      </c>
-      <c r="F212" s="7" t="s">
-        <v>710</v>
       </c>
       <c r="G212" s="7">
         <v>1</v>
@@ -11777,10 +11774,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="35" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J212" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N212" s="7">
         <v>16</v>
@@ -11794,16 +11791,16 @@
         <v>212</v>
       </c>
       <c r="C213" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="D213" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E213" s="7">
+        <v>1</v>
+      </c>
+      <c r="F213" s="7" t="s">
         <v>712</v>
-      </c>
-      <c r="D213" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E213" s="7">
-        <v>1</v>
-      </c>
-      <c r="F213" s="7" t="s">
-        <v>713</v>
       </c>
       <c r="G213" s="7">
         <v>1</v>
@@ -11812,10 +11809,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="35" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J213" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N213" s="7">
         <v>16</v>
@@ -11829,16 +11826,16 @@
         <v>213</v>
       </c>
       <c r="C214" s="35" t="s">
+        <v>714</v>
+      </c>
+      <c r="D214" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E214" s="7">
+        <v>1</v>
+      </c>
+      <c r="F214" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="D214" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E214" s="7">
-        <v>1</v>
-      </c>
-      <c r="F214" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="G214" s="7">
         <v>1</v>
@@ -11847,10 +11844,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="35" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J214" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N214" s="7">
         <v>16</v>
@@ -11864,16 +11861,16 @@
         <v>214</v>
       </c>
       <c r="C215" s="35" t="s">
+        <v>717</v>
+      </c>
+      <c r="D215" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E215" s="7">
+        <v>1</v>
+      </c>
+      <c r="F215" s="7" t="s">
         <v>718</v>
-      </c>
-      <c r="D215" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E215" s="7">
-        <v>1</v>
-      </c>
-      <c r="F215" s="7" t="s">
-        <v>719</v>
       </c>
       <c r="G215" s="7">
         <v>1</v>
@@ -11882,10 +11879,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J215" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N215" s="7">
         <v>16</v>
@@ -11899,16 +11896,16 @@
         <v>215</v>
       </c>
       <c r="C216" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="D216" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E216" s="7">
+        <v>1</v>
+      </c>
+      <c r="F216" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="D216" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E216" s="7">
-        <v>1</v>
-      </c>
-      <c r="F216" s="7" t="s">
-        <v>722</v>
       </c>
       <c r="G216" s="7">
         <v>1</v>
@@ -11917,10 +11914,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J216" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N216" s="7">
         <v>16</v>
@@ -11934,16 +11931,16 @@
         <v>216</v>
       </c>
       <c r="C217" s="35" t="s">
+        <v>723</v>
+      </c>
+      <c r="D217" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E217" s="7">
+        <v>1</v>
+      </c>
+      <c r="F217" s="7" t="s">
         <v>724</v>
-      </c>
-      <c r="D217" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E217" s="7">
-        <v>1</v>
-      </c>
-      <c r="F217" s="7" t="s">
-        <v>725</v>
       </c>
       <c r="G217" s="7">
         <v>1</v>
@@ -11952,10 +11949,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J217" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N217" s="7">
         <v>16</v>
@@ -11969,16 +11966,16 @@
         <v>217</v>
       </c>
       <c r="C218" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="D218" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E218" s="7">
+        <v>1</v>
+      </c>
+      <c r="F218" s="7" t="s">
         <v>727</v>
-      </c>
-      <c r="D218" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E218" s="7">
-        <v>1</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>728</v>
       </c>
       <c r="G218" s="7">
         <v>1</v>
@@ -11987,10 +11984,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J218" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N218" s="7">
         <v>16</v>
@@ -12004,16 +12001,16 @@
         <v>218</v>
       </c>
       <c r="C219" s="35" t="s">
+        <v>729</v>
+      </c>
+      <c r="D219" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E219" s="7">
+        <v>1</v>
+      </c>
+      <c r="F219" s="7" t="s">
         <v>730</v>
-      </c>
-      <c r="D219" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E219" s="7">
-        <v>1</v>
-      </c>
-      <c r="F219" s="7" t="s">
-        <v>731</v>
       </c>
       <c r="G219" s="7">
         <v>1</v>
@@ -12022,10 +12019,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="35" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J219" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N219" s="7">
         <v>16</v>
@@ -12039,16 +12036,16 @@
         <v>219</v>
       </c>
       <c r="C220" s="35" t="s">
+        <v>732</v>
+      </c>
+      <c r="D220" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E220" s="7">
+        <v>1</v>
+      </c>
+      <c r="F220" s="35" t="s">
         <v>733</v>
-      </c>
-      <c r="D220" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E220" s="7">
-        <v>1</v>
-      </c>
-      <c r="F220" s="35" t="s">
-        <v>734</v>
       </c>
       <c r="G220" s="7">
         <v>1</v>
@@ -12057,10 +12054,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J220" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N220" s="7">
         <v>16</v>
@@ -12074,7 +12071,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D221" s="7">
         <v>-1</v>
@@ -12083,7 +12080,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G221" s="7">
         <v>1</v>
@@ -12092,10 +12089,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="J221" s="35" t="s">
         <v>737</v>
-      </c>
-      <c r="J221" s="35" t="s">
-        <v>738</v>
       </c>
       <c r="N221" s="7">
         <v>16</v>
@@ -12109,7 +12106,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D222" s="7">
         <v>-1</v>
@@ -12118,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G222" s="7">
         <v>1</v>
@@ -12127,10 +12124,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J222" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N222" s="7">
         <v>16</v>
@@ -12144,7 +12141,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D223" s="7">
         <v>-1</v>
@@ -12153,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G223" s="7">
         <v>1</v>
@@ -12162,10 +12159,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J223" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N223" s="7">
         <v>16</v>
@@ -12179,7 +12176,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D224" s="7">
         <v>-1</v>
@@ -12188,7 +12185,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G224" s="7">
         <v>1</v>
@@ -12197,10 +12194,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="35" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J224" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N224" s="7">
         <v>16</v>
@@ -12214,7 +12211,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D225" s="7">
         <v>-1</v>
@@ -12223,7 +12220,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G225" s="7">
         <v>1</v>
@@ -12232,10 +12229,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="35" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J225" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N225" s="7">
         <v>16</v>
@@ -12249,7 +12246,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D226" s="7">
         <v>-1</v>
@@ -12258,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G226" s="7">
         <v>1</v>
@@ -12267,10 +12264,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="35" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J226" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N226" s="7">
         <v>16</v>
@@ -12284,7 +12281,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D227" s="7">
         <v>-1</v>
@@ -12293,7 +12290,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G227" s="7">
         <v>1</v>
@@ -12302,10 +12299,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J227" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N227" s="7">
         <v>16</v>
@@ -12319,7 +12316,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D228" s="7">
         <v>-1</v>
@@ -12328,7 +12325,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G228" s="7">
         <v>1</v>
@@ -12337,10 +12334,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J228" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N228" s="7">
         <v>16</v>
@@ -12354,7 +12351,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D229" s="7">
         <v>-1</v>
@@ -12363,7 +12360,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G229" s="7">
         <v>1</v>
@@ -12372,10 +12369,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J229" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N229" s="7">
         <v>16</v>
@@ -12389,7 +12386,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D230" s="7">
         <v>-1</v>
@@ -12398,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G230" s="7">
         <v>1</v>
@@ -12407,10 +12404,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="35" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J230" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N230" s="7">
         <v>16</v>
@@ -12424,7 +12421,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D231" s="7">
         <v>-1</v>
@@ -12433,7 +12430,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G231" s="7">
         <v>1</v>
@@ -12442,10 +12439,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J231" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N231" s="7">
         <v>16</v>
@@ -12459,7 +12456,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D232" s="7">
         <v>-1</v>
@@ -12468,7 +12465,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G232" s="7">
         <v>1</v>
@@ -12477,10 +12474,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J232" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N232" s="7">
         <v>16</v>
@@ -12494,7 +12491,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D233" s="7">
         <v>-1</v>
@@ -12503,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G233" s="7">
         <v>1</v>
@@ -12512,10 +12509,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="35" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J233" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N233" s="7">
         <v>16</v>
@@ -12529,7 +12526,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D234" s="7">
         <v>-1</v>
@@ -12538,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G234" s="7">
         <v>1</v>
@@ -12547,10 +12544,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="35" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J234" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N234" s="7">
         <v>16</v>
@@ -12564,7 +12561,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D235" s="7">
         <v>-1</v>
@@ -12573,7 +12570,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G235" s="7">
         <v>1</v>
@@ -12582,10 +12579,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="35" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J235" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N235" s="7">
         <v>16</v>
@@ -12599,7 +12596,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D236" s="7">
         <v>-1</v>
@@ -12608,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G236" s="7">
         <v>1</v>
@@ -12617,10 +12614,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="35" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J236" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N236" s="7">
         <v>16</v>
@@ -12634,7 +12631,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D237" s="7">
         <v>-1</v>
@@ -12643,7 +12640,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G237" s="7">
         <v>1</v>
@@ -12652,10 +12649,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J237" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N237" s="7">
         <v>16</v>
@@ -12669,7 +12666,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D238" s="7">
         <v>-1</v>
@@ -12678,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G238" s="7">
         <v>1</v>
@@ -12687,10 +12684,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="35" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J238" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N238" s="7">
         <v>16</v>
@@ -12704,7 +12701,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D239" s="7">
         <v>-1</v>
@@ -12713,7 +12710,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G239" s="7">
         <v>1</v>
@@ -12722,10 +12719,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="35" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J239" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N239" s="7">
         <v>16</v>
@@ -12739,7 +12736,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D240" s="7">
         <v>-1</v>
@@ -12748,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G240" s="7">
         <v>1</v>
@@ -12757,10 +12754,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="35" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J240" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N240" s="7">
         <v>16</v>
@@ -12774,7 +12771,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D241" s="7">
         <v>-1</v>
@@ -12783,7 +12780,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G241" s="7">
         <v>1</v>
@@ -12792,10 +12789,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="35" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J241" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N241" s="7">
         <v>16</v>
@@ -12809,7 +12806,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D242" s="7">
         <v>-1</v>
@@ -12818,7 +12815,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G242" s="7">
         <v>1</v>
@@ -12827,10 +12824,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="35" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J242" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N242" s="7">
         <v>16</v>
@@ -12844,7 +12841,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D243" s="7">
         <v>-1</v>
@@ -12853,7 +12850,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G243" s="7">
         <v>1</v>
@@ -12862,10 +12859,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="35" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J243" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N243" s="7">
         <v>16</v>
@@ -12879,7 +12876,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D244" s="7">
         <v>-1</v>
@@ -12888,7 +12885,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G244" s="7">
         <v>1</v>
@@ -12897,10 +12894,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="35" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J244" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N244" s="7">
         <v>16</v>
@@ -12914,7 +12911,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D245" s="7">
         <v>-1</v>
@@ -12923,7 +12920,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G245" s="7">
         <v>1</v>
@@ -12932,10 +12929,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="35" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J245" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N245" s="7">
         <v>16</v>
@@ -12949,7 +12946,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D246" s="7">
         <v>-1</v>
@@ -12958,7 +12955,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G246" s="7">
         <v>1</v>
@@ -12967,10 +12964,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="35" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J246" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N246" s="7">
         <v>16</v>
@@ -12984,7 +12981,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D247" s="7">
         <v>-1</v>
@@ -12993,7 +12990,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G247" s="7">
         <v>1</v>
@@ -13002,10 +12999,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="35" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J247" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N247" s="7">
         <v>16</v>
@@ -13019,7 +13016,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D248" s="7">
         <v>-1</v>
@@ -13028,7 +13025,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G248" s="7">
         <v>1</v>
@@ -13037,10 +13034,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="35" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J248" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N248" s="7">
         <v>16</v>
@@ -13054,7 +13051,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D249" s="7">
         <v>-1</v>
@@ -13063,7 +13060,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G249" s="7">
         <v>1</v>
@@ -13072,10 +13069,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="35" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J249" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N249" s="7">
         <v>16</v>
@@ -13089,7 +13086,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D250" s="7">
         <v>-1</v>
@@ -13098,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G250" s="7">
         <v>1</v>
@@ -13107,10 +13104,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="35" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J250" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N250" s="7">
         <v>16</v>
@@ -13124,7 +13121,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D251" s="7">
         <v>-1</v>
@@ -13133,7 +13130,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G251" s="7">
         <v>1</v>
@@ -13142,10 +13139,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="35" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J251" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N251" s="7">
         <v>16</v>
@@ -13159,7 +13156,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="35" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D252" s="7">
         <v>-1</v>
@@ -13168,7 +13165,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G252" s="7">
         <v>1</v>
@@ -13177,10 +13174,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="35" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J252" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N252" s="7">
         <v>16</v>
@@ -13194,7 +13191,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="35" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D253" s="7">
         <v>-1</v>
@@ -13203,7 +13200,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G253" s="7">
         <v>1</v>
@@ -13212,10 +13209,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="35" t="s">
+        <v>801</v>
+      </c>
+      <c r="J253" s="35" t="s">
         <v>802</v>
-      </c>
-      <c r="J253" s="35" t="s">
-        <v>803</v>
       </c>
       <c r="N253" s="7">
         <v>16</v>
@@ -13229,7 +13226,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="35" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D254" s="7">
         <v>-1</v>
@@ -13238,7 +13235,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G254" s="7">
         <v>1</v>
@@ -13247,10 +13244,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="35" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J254" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N254" s="7">
         <v>16</v>
@@ -13264,7 +13261,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="35" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D255" s="7">
         <v>-1</v>
@@ -13273,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G255" s="7">
         <v>1</v>
@@ -13282,10 +13279,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="35" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J255" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N255" s="7">
         <v>16</v>
@@ -13299,7 +13296,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="35" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D256" s="7">
         <v>-1</v>
@@ -13308,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G256" s="7">
         <v>1</v>
@@ -13317,10 +13314,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="35" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J256" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N256" s="7">
         <v>16</v>
@@ -13334,7 +13331,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="35" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D257" s="7">
         <v>-1</v>
@@ -13343,7 +13340,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G257" s="7">
         <v>1</v>
@@ -13352,10 +13349,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="35" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J257" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N257" s="7">
         <v>16</v>
@@ -13369,7 +13366,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="35" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D258" s="7">
         <v>-1</v>
@@ -13378,7 +13375,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G258" s="7">
         <v>1</v>
@@ -13387,10 +13384,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="35" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J258" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N258" s="7">
         <v>16</v>
@@ -13404,7 +13401,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="35" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D259" s="7">
         <v>-1</v>
@@ -13413,7 +13410,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G259" s="7">
         <v>1</v>
@@ -13422,10 +13419,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="35" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J259" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N259" s="7">
         <v>16</v>
@@ -13439,7 +13436,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D260" s="7">
         <v>-1</v>
@@ -13448,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G260" s="7">
         <v>1</v>
@@ -13457,10 +13454,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="35" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J260" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N260" s="7">
         <v>16</v>
@@ -13474,7 +13471,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D261" s="7">
         <v>-1</v>
@@ -13483,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G261" s="7">
         <v>1</v>
@@ -13492,10 +13489,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="35" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J261" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N261" s="7">
         <v>16</v>
@@ -13509,7 +13506,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="35" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D262" s="7">
         <v>-1</v>
@@ -13518,7 +13515,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G262" s="7">
         <v>1</v>
@@ -13527,10 +13524,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="35" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J262" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N262" s="7">
         <v>16</v>
@@ -13544,7 +13541,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="35" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D263" s="7">
         <v>-1</v>
@@ -13553,7 +13550,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G263" s="7">
         <v>1</v>
@@ -13562,10 +13559,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="35" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J263" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N263" s="7">
         <v>16</v>
@@ -13579,7 +13576,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="35" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D264" s="7">
         <v>-1</v>
@@ -13588,7 +13585,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G264" s="7">
         <v>1</v>
@@ -13597,10 +13594,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="35" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J264" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N264" s="7">
         <v>16</v>
@@ -13614,7 +13611,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D265" s="7">
         <v>-1</v>
@@ -13623,7 +13620,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G265" s="7">
         <v>1</v>
@@ -13632,10 +13629,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="35" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J265" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N265" s="7">
         <v>16</v>
@@ -13649,7 +13646,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D266" s="7">
         <v>-1</v>
@@ -13658,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G266" s="7">
         <v>1</v>
@@ -13667,10 +13664,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J266" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N266" s="7">
         <v>16</v>
@@ -13684,7 +13681,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D267" s="7">
         <v>-1</v>
@@ -13693,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G267" s="7">
         <v>1</v>
@@ -13702,10 +13699,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J267" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N267" s="7">
         <v>16</v>
@@ -13719,7 +13716,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="35" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D268" s="7">
         <v>-1</v>
@@ -13728,7 +13725,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G268" s="7">
         <v>1</v>
@@ -13737,10 +13734,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J268" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N268" s="7">
         <v>16</v>
@@ -13754,7 +13751,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="35" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D269" s="7">
         <v>-1</v>
@@ -13763,7 +13760,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G269" s="7">
         <v>1</v>
@@ -13772,10 +13769,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="35" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J269" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N269" s="7">
         <v>16</v>
@@ -13789,7 +13786,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="35" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D270" s="7">
         <v>-1</v>
@@ -13798,7 +13795,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G270" s="7">
         <v>1</v>
@@ -13807,10 +13804,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="35" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J270" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N270" s="7">
         <v>16</v>
@@ -13824,7 +13821,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="35" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D271" s="7">
         <v>-1</v>
@@ -13833,7 +13830,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G271" s="7">
         <v>1</v>
@@ -13842,10 +13839,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="35" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J271" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N271" s="7">
         <v>16</v>
@@ -13859,7 +13856,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="35" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D272" s="7">
         <v>-1</v>
@@ -13868,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G272" s="7">
         <v>1</v>
@@ -13877,10 +13874,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="35" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J272" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N272" s="7">
         <v>16</v>
@@ -13894,7 +13891,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="35" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D273" s="7">
         <v>-1</v>
@@ -13903,7 +13900,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G273" s="7">
         <v>1</v>
@@ -13912,10 +13909,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="35" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J273" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N273" s="7">
         <v>16</v>
@@ -13929,7 +13926,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="35" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D274" s="7">
         <v>-1</v>
@@ -13938,7 +13935,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G274" s="7">
         <v>1</v>
@@ -13947,10 +13944,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="35" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J274" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N274" s="7">
         <v>16</v>
@@ -13964,7 +13961,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="35" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D275" s="7">
         <v>-1</v>
@@ -13973,7 +13970,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G275" s="7">
         <v>1</v>
@@ -13982,10 +13979,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="35" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J275" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N275" s="7">
         <v>16</v>
@@ -13999,7 +13996,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="35" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D276" s="7">
         <v>-1</v>
@@ -14008,7 +14005,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G276" s="7">
         <v>1</v>
@@ -14017,10 +14014,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="35" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J276" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N276" s="7">
         <v>16</v>
@@ -14034,7 +14031,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="35" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D277" s="7">
         <v>-1</v>
@@ -14043,7 +14040,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G277" s="7">
         <v>1</v>
@@ -14052,10 +14049,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="35" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J277" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N277" s="7">
         <v>16</v>
@@ -14069,7 +14066,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="35" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D278" s="7">
         <v>-1</v>
@@ -14078,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G278" s="7">
         <v>1</v>
@@ -14087,10 +14084,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="35" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J278" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N278" s="7">
         <v>16</v>
@@ -14104,7 +14101,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="35" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D279" s="7">
         <v>-1</v>
@@ -14113,7 +14110,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G279" s="7">
         <v>1</v>
@@ -14122,10 +14119,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="35" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J279" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N279" s="7">
         <v>16</v>
@@ -14139,7 +14136,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="35" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D280" s="7">
         <v>-1</v>
@@ -14148,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G280" s="7">
         <v>1</v>
@@ -14157,10 +14154,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="35" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J280" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N280" s="7">
         <v>16</v>
@@ -14174,7 +14171,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="35" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D281" s="7">
         <v>-1</v>
@@ -14183,7 +14180,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G281" s="7">
         <v>1</v>
@@ -14192,10 +14189,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="35" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J281" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N281" s="7">
         <v>16</v>
@@ -14209,7 +14206,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="35" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D282" s="7">
         <v>-1</v>
@@ -14218,7 +14215,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G282" s="7">
         <v>1</v>
@@ -14227,10 +14224,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="35" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J282" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N282" s="7">
         <v>16</v>
@@ -14244,7 +14241,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="35" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D283" s="7">
         <v>-1</v>
@@ -14253,7 +14250,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G283" s="7">
         <v>1</v>
@@ -14262,10 +14259,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="35" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J283" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N283" s="7">
         <v>16</v>
@@ -14279,7 +14276,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D284" s="7">
         <v>-1</v>
@@ -14288,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G284" s="7">
         <v>1</v>
@@ -14297,10 +14294,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="35" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J284" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N284" s="7">
         <v>16</v>
@@ -14314,16 +14311,16 @@
         <v>284</v>
       </c>
       <c r="C285" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="D285" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E285" s="3">
+        <v>1</v>
+      </c>
+      <c r="F285" s="24" t="s">
         <v>866</v>
-      </c>
-      <c r="D285" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E285" s="3">
-        <v>1</v>
-      </c>
-      <c r="F285" s="24" t="s">
-        <v>867</v>
       </c>
       <c r="G285" s="3">
         <v>0</v>
@@ -14332,10 +14329,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="24" t="s">
+        <v>867</v>
+      </c>
+      <c r="J285" s="24" t="s">
         <v>868</v>
-      </c>
-      <c r="J285" s="24" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="286" s="3" customFormat="1" spans="1:10">
@@ -14346,7 +14343,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D286" s="3">
         <v>-1</v>
@@ -14355,7 +14352,7 @@
         <v>1</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G286" s="3">
         <v>0</v>
@@ -14364,10 +14361,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="287" s="3" customFormat="1" spans="1:10">
@@ -14378,16 +14375,16 @@
         <v>286</v>
       </c>
       <c r="C287" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="D287" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E287" s="3">
+        <v>1</v>
+      </c>
+      <c r="F287" s="3" t="s">
         <v>872</v>
-      </c>
-      <c r="D287" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E287" s="3">
-        <v>1</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>873</v>
       </c>
       <c r="G287" s="3">
         <v>0</v>
@@ -14396,10 +14393,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="J287" s="3" t="s">
         <v>874</v>
-      </c>
-      <c r="J287" s="3" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="288" s="3" customFormat="1" spans="1:10">
@@ -14410,16 +14407,16 @@
         <v>287</v>
       </c>
       <c r="C288" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="D288" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E288" s="3">
+        <v>1</v>
+      </c>
+      <c r="F288" s="24" t="s">
         <v>876</v>
-      </c>
-      <c r="D288" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E288" s="3">
-        <v>1</v>
-      </c>
-      <c r="F288" s="24" t="s">
-        <v>877</v>
       </c>
       <c r="G288" s="3">
         <v>0</v>
@@ -14428,10 +14425,10 @@
         <v>33</v>
       </c>
       <c r="I288" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="J288" s="24" t="s">
         <v>878</v>
-      </c>
-      <c r="J288" s="24" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="289" s="3" customFormat="1" spans="1:10">
@@ -14442,16 +14439,16 @@
         <v>288</v>
       </c>
       <c r="C289" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="D289" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E289" s="3">
+        <v>1</v>
+      </c>
+      <c r="F289" s="24" t="s">
         <v>880</v>
-      </c>
-      <c r="D289" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E289" s="3">
-        <v>1</v>
-      </c>
-      <c r="F289" s="24" t="s">
-        <v>881</v>
       </c>
       <c r="G289" s="3">
         <v>0</v>
@@ -14460,10 +14457,10 @@
         <v>33</v>
       </c>
       <c r="I289" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="J289" s="24" t="s">
         <v>882</v>
-      </c>
-      <c r="J289" s="24" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="290" s="3" customFormat="1" spans="1:10">
@@ -14474,7 +14471,7 @@
         <v>289</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D290" s="3">
         <v>-1</v>
@@ -14492,10 +14489,10 @@
         <v>33</v>
       </c>
       <c r="I290" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J290" s="24" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="291" s="8" customFormat="1" spans="1:10">
@@ -14506,16 +14503,16 @@
         <v>290</v>
       </c>
       <c r="C291" s="30" t="s">
+        <v>885</v>
+      </c>
+      <c r="D291" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E291" s="8">
+        <v>1</v>
+      </c>
+      <c r="F291" s="30" t="s">
         <v>886</v>
-      </c>
-      <c r="D291" s="8">
-        <v>-1</v>
-      </c>
-      <c r="E291" s="8">
-        <v>1</v>
-      </c>
-      <c r="F291" s="30" t="s">
-        <v>887</v>
       </c>
       <c r="G291" s="8">
         <v>0</v>
@@ -14524,10 +14521,10 @@
         <v>33</v>
       </c>
       <c r="I291" s="30" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J291" s="30" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="292" s="3" customFormat="1" ht="16.5" spans="1:12">
@@ -14538,16 +14535,16 @@
         <v>291</v>
       </c>
       <c r="C292" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="D292" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E292" s="3">
+        <v>1</v>
+      </c>
+      <c r="F292" s="24" t="s">
         <v>889</v>
-      </c>
-      <c r="D292" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E292" s="3">
-        <v>1</v>
-      </c>
-      <c r="F292" s="24" t="s">
-        <v>890</v>
       </c>
       <c r="G292" s="3">
         <v>1</v>
@@ -14556,13 +14553,13 @@
         <v>33</v>
       </c>
       <c r="I292" s="24" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J292" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="L292" s="37" t="s">
         <v>891</v>
-      </c>
-      <c r="L292" s="37" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="293" s="3" customFormat="1" ht="16.5" spans="1:12">
@@ -14573,16 +14570,16 @@
         <v>292</v>
       </c>
       <c r="C293" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="D293" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E293" s="3">
+        <v>1</v>
+      </c>
+      <c r="F293" s="24" t="s">
         <v>893</v>
-      </c>
-      <c r="D293" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E293" s="3">
-        <v>1</v>
-      </c>
-      <c r="F293" s="24" t="s">
-        <v>894</v>
       </c>
       <c r="G293" s="3">
         <v>1</v>
@@ -14591,13 +14588,13 @@
         <v>33</v>
       </c>
       <c r="I293" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J293" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="L293" s="37" t="s">
         <v>895</v>
-      </c>
-      <c r="L293" s="37" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="294" s="3" customFormat="1" ht="16.5" spans="1:12">
@@ -14608,16 +14605,16 @@
         <v>293</v>
       </c>
       <c r="C294" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="D294" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E294" s="3">
+        <v>1</v>
+      </c>
+      <c r="F294" s="24" t="s">
         <v>897</v>
-      </c>
-      <c r="D294" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E294" s="3">
-        <v>1</v>
-      </c>
-      <c r="F294" s="24" t="s">
-        <v>898</v>
       </c>
       <c r="G294" s="3">
         <v>1</v>
@@ -14626,13 +14623,13 @@
         <v>33</v>
       </c>
       <c r="I294" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J294" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="L294" s="37" t="s">
         <v>899</v>
-      </c>
-      <c r="L294" s="37" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="295" s="3" customFormat="1" spans="1:10">
@@ -14643,16 +14640,16 @@
         <v>294</v>
       </c>
       <c r="C295" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="D295" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E295" s="3">
+        <v>1</v>
+      </c>
+      <c r="F295" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="D295" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E295" s="3">
-        <v>1</v>
-      </c>
-      <c r="F295" s="3" t="s">
-        <v>902</v>
       </c>
       <c r="G295" s="3">
         <v>1</v>
@@ -14661,10 +14658,10 @@
         <v>33</v>
       </c>
       <c r="I295" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="J295" s="24" t="s">
         <v>903</v>
-      </c>
-      <c r="J295" s="24" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="296" s="3" customFormat="1" spans="1:10">
@@ -14675,16 +14672,16 @@
         <v>295</v>
       </c>
       <c r="C296" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="D296" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E296" s="3">
+        <v>1</v>
+      </c>
+      <c r="F296" s="3" t="s">
         <v>905</v>
-      </c>
-      <c r="D296" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E296" s="3">
-        <v>1</v>
-      </c>
-      <c r="F296" s="3" t="s">
-        <v>906</v>
       </c>
       <c r="G296" s="3">
         <v>1</v>
@@ -14693,10 +14690,10 @@
         <v>33</v>
       </c>
       <c r="I296" s="24" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J296" s="24" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="297" s="3" customFormat="1" spans="1:10">
@@ -14707,16 +14704,16 @@
         <v>296</v>
       </c>
       <c r="C297" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="D297" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E297" s="3">
+        <v>1</v>
+      </c>
+      <c r="F297" s="3" t="s">
         <v>908</v>
-      </c>
-      <c r="D297" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E297" s="3">
-        <v>1</v>
-      </c>
-      <c r="F297" s="3" t="s">
-        <v>909</v>
       </c>
       <c r="G297" s="3">
         <v>1</v>
@@ -14725,10 +14722,10 @@
         <v>33</v>
       </c>
       <c r="I297" s="24" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J297" s="24" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="298" s="3" customFormat="1" spans="1:10">
@@ -14739,16 +14736,16 @@
         <v>297</v>
       </c>
       <c r="C298" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="D298" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E298" s="3">
+        <v>1</v>
+      </c>
+      <c r="F298" s="3" t="s">
         <v>911</v>
-      </c>
-      <c r="D298" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E298" s="3">
-        <v>1</v>
-      </c>
-      <c r="F298" s="3" t="s">
-        <v>912</v>
       </c>
       <c r="G298" s="3">
         <v>1</v>
@@ -14757,10 +14754,10 @@
         <v>33</v>
       </c>
       <c r="I298" s="24" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J298" s="24" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="299" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14771,16 +14768,16 @@
         <v>298</v>
       </c>
       <c r="C299" s="25" t="s">
+        <v>913</v>
+      </c>
+      <c r="D299" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E299" s="3">
+        <v>1</v>
+      </c>
+      <c r="F299" s="31" t="s">
         <v>914</v>
-      </c>
-      <c r="D299" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E299" s="3">
-        <v>1</v>
-      </c>
-      <c r="F299" s="31" t="s">
-        <v>915</v>
       </c>
       <c r="G299" s="3">
         <v>0</v>
@@ -14792,7 +14789,7 @@
         <v>337</v>
       </c>
       <c r="J299" s="24" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="300" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14803,16 +14800,16 @@
         <v>299</v>
       </c>
       <c r="C300" s="25" t="s">
+        <v>916</v>
+      </c>
+      <c r="D300" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E300" s="3">
+        <v>1</v>
+      </c>
+      <c r="F300" s="24" t="s">
         <v>917</v>
-      </c>
-      <c r="D300" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E300" s="3">
-        <v>1</v>
-      </c>
-      <c r="F300" s="24" t="s">
-        <v>918</v>
       </c>
       <c r="G300" s="3">
         <v>0</v>
@@ -14824,7 +14821,7 @@
         <v>346</v>
       </c>
       <c r="J300" s="24" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="301" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14835,16 +14832,16 @@
         <v>300</v>
       </c>
       <c r="C301" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="D301" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E301" s="3">
+        <v>1</v>
+      </c>
+      <c r="F301" s="24" t="s">
         <v>920</v>
-      </c>
-      <c r="D301" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E301" s="3">
-        <v>1</v>
-      </c>
-      <c r="F301" s="24" t="s">
-        <v>921</v>
       </c>
       <c r="G301" s="3">
         <v>0</v>
@@ -14856,7 +14853,7 @@
         <v>330</v>
       </c>
       <c r="J301" s="24" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="302" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14867,16 +14864,16 @@
         <v>301</v>
       </c>
       <c r="C302" s="25" t="s">
+        <v>922</v>
+      </c>
+      <c r="D302" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E302" s="3">
+        <v>1</v>
+      </c>
+      <c r="F302" s="24" t="s">
         <v>923</v>
-      </c>
-      <c r="D302" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E302" s="3">
-        <v>1</v>
-      </c>
-      <c r="F302" s="24" t="s">
-        <v>924</v>
       </c>
       <c r="G302" s="3">
         <v>0</v>
@@ -14888,7 +14885,7 @@
         <v>334</v>
       </c>
       <c r="J302" s="24" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="303" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14899,16 +14896,16 @@
         <v>302</v>
       </c>
       <c r="C303" s="25" t="s">
+        <v>925</v>
+      </c>
+      <c r="D303" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E303" s="3">
+        <v>1</v>
+      </c>
+      <c r="F303" s="31" t="s">
         <v>926</v>
-      </c>
-      <c r="D303" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E303" s="3">
-        <v>1</v>
-      </c>
-      <c r="F303" s="31" t="s">
-        <v>927</v>
       </c>
       <c r="G303" s="3">
         <v>0</v>
@@ -14917,10 +14914,10 @@
         <v>1</v>
       </c>
       <c r="I303" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="J303" s="24" t="s">
         <v>928</v>
-      </c>
-      <c r="J303" s="24" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="304" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14931,16 +14928,16 @@
         <v>303</v>
       </c>
       <c r="C304" s="25" t="s">
+        <v>929</v>
+      </c>
+      <c r="D304" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E304" s="3">
+        <v>1</v>
+      </c>
+      <c r="F304" s="31" t="s">
         <v>930</v>
-      </c>
-      <c r="D304" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E304" s="3">
-        <v>1</v>
-      </c>
-      <c r="F304" s="31" t="s">
-        <v>931</v>
       </c>
       <c r="G304" s="3">
         <v>0</v>
@@ -14949,10 +14946,10 @@
         <v>1</v>
       </c>
       <c r="I304" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="J304" s="24" t="s">
         <v>932</v>
-      </c>
-      <c r="J304" s="24" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="305" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14963,16 +14960,16 @@
         <v>304</v>
       </c>
       <c r="C305" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="D305" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E305" s="3">
+        <v>1</v>
+      </c>
+      <c r="F305" s="31" t="s">
         <v>934</v>
-      </c>
-      <c r="D305" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E305" s="3">
-        <v>1</v>
-      </c>
-      <c r="F305" s="31" t="s">
-        <v>935</v>
       </c>
       <c r="G305" s="3">
         <v>0</v>
@@ -14981,10 +14978,10 @@
         <v>1</v>
       </c>
       <c r="I305" s="24" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J305" s="24" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="306" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14995,16 +14992,16 @@
         <v>305</v>
       </c>
       <c r="C306" s="25" t="s">
+        <v>936</v>
+      </c>
+      <c r="D306" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E306" s="3">
+        <v>1</v>
+      </c>
+      <c r="F306" s="24" t="s">
         <v>937</v>
-      </c>
-      <c r="D306" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E306" s="3">
-        <v>1</v>
-      </c>
-      <c r="F306" s="24" t="s">
-        <v>938</v>
       </c>
       <c r="G306" s="3">
         <v>0</v>
@@ -15013,10 +15010,10 @@
         <v>1</v>
       </c>
       <c r="I306" s="24" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J306" s="24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="307" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -15027,16 +15024,16 @@
         <v>306</v>
       </c>
       <c r="C307" s="25" t="s">
+        <v>938</v>
+      </c>
+      <c r="D307" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E307" s="3">
+        <v>1</v>
+      </c>
+      <c r="F307" s="24" t="s">
         <v>939</v>
-      </c>
-      <c r="D307" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E307" s="3">
-        <v>1</v>
-      </c>
-      <c r="F307" s="24" t="s">
-        <v>940</v>
       </c>
       <c r="G307" s="3">
         <v>0</v>
@@ -15045,10 +15042,10 @@
         <v>1</v>
       </c>
       <c r="I307" s="24" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J307" s="24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="308" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15059,34 +15056,34 @@
         <v>307</v>
       </c>
       <c r="C308" s="24" t="s">
+        <v>941</v>
+      </c>
+      <c r="D308" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E308" s="3">
+        <v>1</v>
+      </c>
+      <c r="F308" s="25" t="s">
         <v>942</v>
       </c>
-      <c r="D308" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E308" s="3">
-        <v>1</v>
-      </c>
-      <c r="F308" s="25" t="s">
+      <c r="G308" s="3">
+        <v>1</v>
+      </c>
+      <c r="H308" s="3">
+        <v>1</v>
+      </c>
+      <c r="I308" s="24" t="s">
         <v>943</v>
       </c>
-      <c r="G308" s="3">
-        <v>1</v>
-      </c>
-      <c r="H308" s="3">
-        <v>1</v>
-      </c>
-      <c r="I308" s="24" t="s">
+      <c r="J308" s="38" t="s">
         <v>944</v>
       </c>
-      <c r="J308" s="38" t="s">
+      <c r="K308" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="K308" s="9" t="s">
+      <c r="L308" s="39" t="s">
         <v>946</v>
-      </c>
-      <c r="L308" s="39" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="309" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15097,34 +15094,34 @@
         <v>308</v>
       </c>
       <c r="C309" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="D309" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E309" s="3">
+        <v>1</v>
+      </c>
+      <c r="F309" s="25" t="s">
         <v>948</v>
       </c>
-      <c r="D309" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E309" s="3">
-        <v>1</v>
-      </c>
-      <c r="F309" s="25" t="s">
+      <c r="G309" s="3">
+        <v>1</v>
+      </c>
+      <c r="H309" s="3">
+        <v>1</v>
+      </c>
+      <c r="I309" s="24" t="s">
         <v>949</v>
       </c>
-      <c r="G309" s="3">
-        <v>1</v>
-      </c>
-      <c r="H309" s="3">
-        <v>1</v>
-      </c>
-      <c r="I309" s="24" t="s">
+      <c r="J309" s="38" t="s">
         <v>950</v>
       </c>
-      <c r="J309" s="38" t="s">
-        <v>951</v>
-      </c>
       <c r="K309" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="L309" s="39" t="s">
         <v>946</v>
-      </c>
-      <c r="L309" s="39" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="310" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15135,34 +15132,34 @@
         <v>309</v>
       </c>
       <c r="C310" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="D310" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E310" s="3">
+        <v>1</v>
+      </c>
+      <c r="F310" s="25" t="s">
         <v>952</v>
       </c>
-      <c r="D310" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E310" s="3">
-        <v>1</v>
-      </c>
-      <c r="F310" s="25" t="s">
+      <c r="G310" s="3">
+        <v>1</v>
+      </c>
+      <c r="H310" s="3">
+        <v>1</v>
+      </c>
+      <c r="I310" s="24" t="s">
         <v>953</v>
       </c>
-      <c r="G310" s="3">
-        <v>1</v>
-      </c>
-      <c r="H310" s="3">
-        <v>1</v>
-      </c>
-      <c r="I310" s="24" t="s">
+      <c r="J310" s="38" t="s">
         <v>954</v>
       </c>
-      <c r="J310" s="38" t="s">
-        <v>955</v>
-      </c>
       <c r="K310" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="L310" s="39" t="s">
         <v>946</v>
-      </c>
-      <c r="L310" s="39" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="311" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15173,34 +15170,34 @@
         <v>310</v>
       </c>
       <c r="C311" s="24" t="s">
+        <v>955</v>
+      </c>
+      <c r="D311" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E311" s="3">
+        <v>1</v>
+      </c>
+      <c r="F311" s="25" t="s">
         <v>956</v>
       </c>
-      <c r="D311" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E311" s="3">
-        <v>1</v>
-      </c>
-      <c r="F311" s="25" t="s">
+      <c r="G311" s="3">
+        <v>1</v>
+      </c>
+      <c r="H311" s="3">
+        <v>1</v>
+      </c>
+      <c r="I311" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="G311" s="3">
-        <v>1</v>
-      </c>
-      <c r="H311" s="3">
-        <v>1</v>
-      </c>
-      <c r="I311" s="24" t="s">
+      <c r="J311" s="38" t="s">
         <v>958</v>
       </c>
-      <c r="J311" s="38" t="s">
-        <v>959</v>
-      </c>
       <c r="K311" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="L311" s="39" t="s">
         <v>946</v>
-      </c>
-      <c r="L311" s="39" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="312" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15211,34 +15208,34 @@
         <v>311</v>
       </c>
       <c r="C312" s="24" t="s">
+        <v>959</v>
+      </c>
+      <c r="D312" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E312" s="3">
+        <v>1</v>
+      </c>
+      <c r="F312" s="25" t="s">
         <v>960</v>
       </c>
-      <c r="D312" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E312" s="3">
-        <v>1</v>
-      </c>
-      <c r="F312" s="25" t="s">
+      <c r="G312" s="3">
+        <v>1</v>
+      </c>
+      <c r="H312" s="3">
+        <v>1</v>
+      </c>
+      <c r="I312" s="24" t="s">
         <v>961</v>
       </c>
-      <c r="G312" s="3">
-        <v>1</v>
-      </c>
-      <c r="H312" s="3">
-        <v>1</v>
-      </c>
-      <c r="I312" s="24" t="s">
+      <c r="J312" s="38" t="s">
         <v>962</v>
       </c>
-      <c r="J312" s="38" t="s">
-        <v>963</v>
-      </c>
       <c r="K312" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="L312" s="39" t="s">
         <v>946</v>
-      </c>
-      <c r="L312" s="39" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="313" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15249,34 +15246,34 @@
         <v>312</v>
       </c>
       <c r="C313" s="24" t="s">
+        <v>963</v>
+      </c>
+      <c r="D313" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E313" s="3">
+        <v>1</v>
+      </c>
+      <c r="F313" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="D313" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E313" s="3">
-        <v>1</v>
-      </c>
-      <c r="F313" s="25" t="s">
+      <c r="G313" s="3">
+        <v>1</v>
+      </c>
+      <c r="H313" s="3">
+        <v>1</v>
+      </c>
+      <c r="I313" s="24" t="s">
         <v>965</v>
       </c>
-      <c r="G313" s="3">
-        <v>1</v>
-      </c>
-      <c r="H313" s="3">
-        <v>1</v>
-      </c>
-      <c r="I313" s="24" t="s">
+      <c r="J313" s="38" t="s">
         <v>966</v>
       </c>
-      <c r="J313" s="38" t="s">
-        <v>967</v>
-      </c>
       <c r="K313" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="L313" s="39" t="s">
         <v>946</v>
-      </c>
-      <c r="L313" s="39" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="314" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -15287,7 +15284,7 @@
         <v>313</v>
       </c>
       <c r="C314" s="25" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D314" s="3">
         <v>-1</v>
@@ -15296,7 +15293,7 @@
         <v>1</v>
       </c>
       <c r="F314" s="31" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G314" s="3">
         <v>0</v>
@@ -15305,10 +15302,10 @@
         <v>1</v>
       </c>
       <c r="I314" s="24" t="s">
+        <v>968</v>
+      </c>
+      <c r="J314" s="24" t="s">
         <v>969</v>
-      </c>
-      <c r="J314" s="24" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="315" ht="16.5" spans="1:12">
@@ -15319,31 +15316,31 @@
         <v>314</v>
       </c>
       <c r="C315" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="D315" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E315" s="3">
+        <v>1</v>
+      </c>
+      <c r="F315" s="25" t="s">
         <v>971</v>
       </c>
-      <c r="D315" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E315" s="3">
-        <v>1</v>
-      </c>
-      <c r="F315" s="25" t="s">
+      <c r="G315" s="10">
+        <v>1</v>
+      </c>
+      <c r="H315" s="3">
+        <v>1</v>
+      </c>
+      <c r="I315" s="14" t="s">
         <v>972</v>
       </c>
-      <c r="G315" s="10">
-        <v>1</v>
-      </c>
-      <c r="H315" s="3">
-        <v>1</v>
-      </c>
-      <c r="I315" s="14" t="s">
+      <c r="J315" s="10" t="s">
         <v>973</v>
       </c>
-      <c r="J315" s="10" t="s">
+      <c r="L315" s="14" t="s">
         <v>974</v>
-      </c>
-      <c r="L315" s="14" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="316" ht="16.5" spans="1:12">
@@ -15354,31 +15351,31 @@
         <v>315</v>
       </c>
       <c r="C316" s="14" t="s">
+        <v>975</v>
+      </c>
+      <c r="D316" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E316" s="3">
+        <v>1</v>
+      </c>
+      <c r="F316" s="25" t="s">
         <v>976</v>
       </c>
-      <c r="D316" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E316" s="3">
-        <v>1</v>
-      </c>
-      <c r="F316" s="25" t="s">
+      <c r="G316" s="10">
+        <v>1</v>
+      </c>
+      <c r="H316" s="3">
+        <v>1</v>
+      </c>
+      <c r="I316" s="14" t="s">
         <v>977</v>
       </c>
-      <c r="G316" s="10">
-        <v>1</v>
-      </c>
-      <c r="H316" s="3">
-        <v>1</v>
-      </c>
-      <c r="I316" s="14" t="s">
+      <c r="J316" s="10" t="s">
         <v>978</v>
       </c>
-      <c r="J316" s="10" t="s">
+      <c r="L316" s="14" t="s">
         <v>979</v>
-      </c>
-      <c r="L316" s="14" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="317" ht="16.5" spans="1:12">
@@ -15389,31 +15386,31 @@
         <v>316</v>
       </c>
       <c r="C317" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="D317" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E317" s="3">
+        <v>1</v>
+      </c>
+      <c r="F317" s="25" t="s">
         <v>981</v>
       </c>
-      <c r="D317" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E317" s="3">
-        <v>1</v>
-      </c>
-      <c r="F317" s="25" t="s">
+      <c r="G317" s="10">
+        <v>1</v>
+      </c>
+      <c r="H317" s="3">
+        <v>1</v>
+      </c>
+      <c r="I317" s="14" t="s">
         <v>982</v>
       </c>
-      <c r="G317" s="10">
-        <v>1</v>
-      </c>
-      <c r="H317" s="3">
-        <v>1</v>
-      </c>
-      <c r="I317" s="14" t="s">
+      <c r="J317" s="10" t="s">
         <v>983</v>
       </c>
-      <c r="J317" s="10" t="s">
+      <c r="L317" s="14" t="s">
         <v>984</v>
-      </c>
-      <c r="L317" s="14" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="318" ht="16.5" spans="1:12">
@@ -15424,31 +15421,31 @@
         <v>317</v>
       </c>
       <c r="C318" s="14" t="s">
+        <v>985</v>
+      </c>
+      <c r="D318" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E318" s="3">
+        <v>1</v>
+      </c>
+      <c r="F318" s="25" t="s">
         <v>986</v>
       </c>
-      <c r="D318" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E318" s="3">
-        <v>1</v>
-      </c>
-      <c r="F318" s="25" t="s">
+      <c r="G318" s="10">
+        <v>1</v>
+      </c>
+      <c r="H318" s="3">
+        <v>1</v>
+      </c>
+      <c r="I318" s="14" t="s">
         <v>987</v>
       </c>
-      <c r="G318" s="10">
-        <v>1</v>
-      </c>
-      <c r="H318" s="3">
-        <v>1</v>
-      </c>
-      <c r="I318" s="14" t="s">
+      <c r="J318" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="J318" s="10" t="s">
+      <c r="L318" s="14" t="s">
         <v>989</v>
-      </c>
-      <c r="L318" s="14" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -15459,16 +15456,16 @@
         <v>318</v>
       </c>
       <c r="C319" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="D319" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E319" s="10">
+        <v>1</v>
+      </c>
+      <c r="F319" s="14" t="s">
         <v>991</v>
-      </c>
-      <c r="D319" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E319" s="10">
-        <v>1</v>
-      </c>
-      <c r="F319" s="14" t="s">
-        <v>992</v>
       </c>
       <c r="G319" s="10">
         <v>0</v>
@@ -15477,10 +15474,10 @@
         <v>1</v>
       </c>
       <c r="I319" s="14" t="s">
+        <v>992</v>
+      </c>
+      <c r="J319" s="14" t="s">
         <v>993</v>
-      </c>
-      <c r="J319" s="14" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -15491,31 +15488,31 @@
         <v>319</v>
       </c>
       <c r="C320" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="D320" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E320" s="10">
+        <v>1</v>
+      </c>
+      <c r="F320" s="14" t="s">
         <v>995</v>
       </c>
-      <c r="D320" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E320" s="10">
-        <v>1</v>
-      </c>
-      <c r="F320" s="14" t="s">
+      <c r="G320" s="10">
+        <v>1</v>
+      </c>
+      <c r="H320" s="10">
+        <v>1</v>
+      </c>
+      <c r="I320" s="14" t="s">
         <v>996</v>
       </c>
-      <c r="G320" s="10">
-        <v>1</v>
-      </c>
-      <c r="H320" s="10">
-        <v>1</v>
-      </c>
-      <c r="I320" s="14" t="s">
+      <c r="J320" s="14" t="s">
         <v>997</v>
       </c>
-      <c r="J320" s="14" t="s">
+      <c r="L320" s="14" t="s">
         <v>998</v>
-      </c>
-      <c r="L320" s="14" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -15526,7 +15523,7 @@
         <v>320</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D321" s="10">
         <v>-1</v>
@@ -15535,7 +15532,7 @@
         <v>1</v>
       </c>
       <c r="F321" s="14" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G321" s="10">
         <v>0</v>
@@ -15544,10 +15541,10 @@
         <v>1</v>
       </c>
       <c r="I321" s="14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J321" s="14" t="s">
         <v>1001</v>
-      </c>
-      <c r="J321" s="14" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="322" ht="15.75" spans="1:10">
@@ -15558,16 +15555,16 @@
         <v>321</v>
       </c>
       <c r="C322" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D322" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E322" s="10">
+        <v>1</v>
+      </c>
+      <c r="F322" s="40" t="s">
         <v>1003</v>
-      </c>
-      <c r="D322" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E322" s="10">
-        <v>1</v>
-      </c>
-      <c r="F322" s="40" t="s">
-        <v>1004</v>
       </c>
       <c r="G322" s="10">
         <v>0</v>
@@ -15576,10 +15573,10 @@
         <v>1</v>
       </c>
       <c r="I322" s="14" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J322" s="14" t="s">
         <v>1005</v>
-      </c>
-      <c r="J322" s="14" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -15590,16 +15587,16 @@
         <v>322</v>
       </c>
       <c r="C323" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D323" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E323" s="10">
+        <v>1</v>
+      </c>
+      <c r="F323" s="10" t="s">
         <v>1007</v>
-      </c>
-      <c r="D323" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E323" s="10">
-        <v>1</v>
-      </c>
-      <c r="F323" s="10" t="s">
-        <v>1008</v>
       </c>
       <c r="G323" s="10">
         <v>0</v>
@@ -15608,10 +15605,10 @@
         <v>1</v>
       </c>
       <c r="I323" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J323" s="10" t="s">
         <v>1009</v>
-      </c>
-      <c r="J323" s="10" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -15622,16 +15619,16 @@
         <v>323</v>
       </c>
       <c r="C324" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D324" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E324" s="10">
+        <v>1</v>
+      </c>
+      <c r="F324" s="10" t="s">
         <v>1011</v>
-      </c>
-      <c r="D324" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E324" s="10">
-        <v>1</v>
-      </c>
-      <c r="F324" s="10" t="s">
-        <v>1012</v>
       </c>
       <c r="G324" s="10">
         <v>0</v>
@@ -15640,10 +15637,10 @@
         <v>1</v>
       </c>
       <c r="I324" s="10" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J324" s="10" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -15654,28 +15651,28 @@
         <v>324</v>
       </c>
       <c r="C325" s="14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D325" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E325" s="10">
+        <v>1</v>
+      </c>
+      <c r="F325" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="D325" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E325" s="10">
-        <v>1</v>
-      </c>
-      <c r="F325" s="14" t="s">
+      <c r="G325" s="10">
+        <v>1</v>
+      </c>
+      <c r="H325" s="10">
+        <v>1</v>
+      </c>
+      <c r="I325" s="14" t="s">
         <v>1015</v>
       </c>
-      <c r="G325" s="10">
-        <v>1</v>
-      </c>
-      <c r="H325" s="10">
-        <v>1</v>
-      </c>
-      <c r="I325" s="14" t="s">
+      <c r="J325" s="14" t="s">
         <v>1016</v>
-      </c>
-      <c r="J325" s="14" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -15686,28 +15683,28 @@
         <v>325</v>
       </c>
       <c r="C326" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D326" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E326" s="10">
+        <v>1</v>
+      </c>
+      <c r="F326" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="D326" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E326" s="10">
-        <v>1</v>
-      </c>
-      <c r="F326" s="14" t="s">
+      <c r="G326" s="10">
+        <v>1</v>
+      </c>
+      <c r="H326" s="10">
+        <v>1</v>
+      </c>
+      <c r="I326" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="G326" s="10">
-        <v>1</v>
-      </c>
-      <c r="H326" s="10">
-        <v>1</v>
-      </c>
-      <c r="I326" s="14" t="s">
+      <c r="J326" s="14" t="s">
         <v>1020</v>
-      </c>
-      <c r="J326" s="14" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="327" ht="15.75" spans="1:10">
@@ -15718,28 +15715,28 @@
         <v>326</v>
       </c>
       <c r="C327" s="41" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D327" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E327" s="10">
+        <v>1</v>
+      </c>
+      <c r="F327" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G327" s="10">
+        <v>1</v>
+      </c>
+      <c r="H327" s="10">
+        <v>1</v>
+      </c>
+      <c r="I327" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="D327" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E327" s="10">
-        <v>1</v>
-      </c>
-      <c r="F327" s="14" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G327" s="10">
-        <v>1</v>
-      </c>
-      <c r="H327" s="10">
-        <v>1</v>
-      </c>
-      <c r="I327" s="10" t="s">
+      <c r="J327" s="10" t="s">
         <v>1023</v>
-      </c>
-      <c r="J327" s="10" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="328" ht="15.75" spans="1:10">
@@ -15750,32 +15747,32 @@
         <v>327</v>
       </c>
       <c r="C328" s="41" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D328" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E328" s="10">
+        <v>1</v>
+      </c>
+      <c r="F328" s="14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G328" s="10">
+        <v>1</v>
+      </c>
+      <c r="H328" s="10">
+        <v>1</v>
+      </c>
+      <c r="I328" s="10" t="s">
         <v>1025</v>
       </c>
-      <c r="D328" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E328" s="10">
-        <v>1</v>
-      </c>
-      <c r="F328" s="14" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G328" s="10">
-        <v>1</v>
-      </c>
-      <c r="H328" s="10">
-        <v>1</v>
-      </c>
-      <c r="I328" s="10" t="s">
-        <v>1026</v>
-      </c>
       <c r="J328" s="10" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q326">
+  <autoFilter ref="A1:Q328">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
